--- a/Code/Results/Cases/Case_4_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_0/res_line/pl_mw.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.740115582480939</v>
+        <v>3.740115582481224</v>
       </c>
       <c r="C2">
-        <v>1.813102670564547</v>
+        <v>1.813102670564376</v>
       </c>
       <c r="D2">
-        <v>0.3785802840027372</v>
+        <v>0.3785802840023678</v>
       </c>
       <c r="E2">
-        <v>0.5923878209179705</v>
+        <v>0.5923878209179989</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.860015647755205</v>
+        <v>2.860015647755191</v>
       </c>
       <c r="H2">
         <v>1.741817904547517</v>
       </c>
       <c r="I2">
-        <v>0.2141896006442678</v>
+        <v>0.2141896006442607</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -453,13 +453,13 @@
         <v>3.206660667633287</v>
       </c>
       <c r="C3">
-        <v>1.549801537426674</v>
+        <v>1.549801537426788</v>
       </c>
       <c r="D3">
-        <v>0.3252215532592544</v>
+        <v>0.3252215532586291</v>
       </c>
       <c r="E3">
-        <v>0.5055552767888969</v>
+        <v>0.50555527678884</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>1.549210209536056</v>
       </c>
       <c r="I3">
-        <v>0.1823848579434717</v>
+        <v>0.1823848579434326</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.886680526482849</v>
+        <v>2.886680526482905</v>
       </c>
       <c r="C4">
         <v>1.392562551687774</v>
@@ -497,7 +497,7 @@
         <v>0.293489842610299</v>
       </c>
       <c r="E4">
-        <v>0.4540126092982888</v>
+        <v>0.4540126092982533</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>1.436450825108253</v>
       </c>
       <c r="I4">
-        <v>0.1635237661131512</v>
+        <v>0.1635237661131619</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.75786646964076</v>
+        <v>2.757866469640589</v>
       </c>
       <c r="C5">
-        <v>1.329412625010264</v>
+        <v>1.329412625010207</v>
       </c>
       <c r="D5">
-        <v>0.280777975773006</v>
+        <v>0.2807779757727218</v>
       </c>
       <c r="E5">
-        <v>0.4333815145646156</v>
+        <v>0.4333815145645588</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.217595808184925</v>
+        <v>2.21759580818491</v>
       </c>
       <c r="H5">
-        <v>1.391695012561001</v>
+        <v>1.391695012561016</v>
       </c>
       <c r="I5">
-        <v>0.1559774942769856</v>
+        <v>0.155977494276982</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.736563826464192</v>
+        <v>2.736563826464419</v>
       </c>
       <c r="C6">
-        <v>1.318977548136843</v>
+        <v>1.318977548137298</v>
       </c>
       <c r="D6">
-        <v>0.2786793339184754</v>
+        <v>0.2786793339182054</v>
       </c>
       <c r="E6">
-        <v>0.4299763151333735</v>
+        <v>0.4299763151332883</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.203991644509884</v>
+        <v>2.20399164450987</v>
       </c>
       <c r="H6">
-        <v>1.384330405541832</v>
+        <v>1.38433040554186</v>
       </c>
       <c r="I6">
-        <v>0.1547321366017691</v>
+        <v>0.1547321366017265</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.884937290815344</v>
+        <v>2.884937290815287</v>
       </c>
       <c r="C7">
-        <v>1.391707369460505</v>
+        <v>1.391707369460335</v>
       </c>
       <c r="D7">
-        <v>0.2933175682714904</v>
+        <v>0.293317568271533</v>
       </c>
       <c r="E7">
-        <v>0.4537329502869127</v>
+        <v>0.4537329502868914</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>2.299056641914476</v>
       </c>
       <c r="H7">
-        <v>1.435842628725652</v>
+        <v>1.435842628725624</v>
       </c>
       <c r="I7">
-        <v>0.1634214627462214</v>
+        <v>0.1634214627462356</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -643,25 +643,25 @@
         <v>3.554403267325142</v>
       </c>
       <c r="C8">
-        <v>1.721276176953893</v>
+        <v>1.721276176954234</v>
       </c>
       <c r="D8">
-        <v>0.3599423826172625</v>
+        <v>0.3599423826171488</v>
       </c>
       <c r="E8">
-        <v>0.5620329073452979</v>
+        <v>0.5620329073452695</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.736428069192527</v>
+        <v>2.736428069192513</v>
       </c>
       <c r="H8">
         <v>1.674143024330462</v>
       </c>
       <c r="I8">
-        <v>0.2030667442500409</v>
+        <v>0.2030667442500977</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.944425840669453</v>
+        <v>4.944425840669396</v>
       </c>
       <c r="C9">
-        <v>2.412754835144312</v>
+        <v>2.412754835143801</v>
       </c>
       <c r="D9">
-        <v>0.5009170871298068</v>
+        <v>0.500917087130432</v>
       </c>
       <c r="E9">
-        <v>0.7923970301631442</v>
+        <v>0.7923970301631584</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.682420272163796</v>
+        <v>3.682420272163853</v>
       </c>
       <c r="H9">
         <v>2.195167989873127</v>
       </c>
       <c r="I9">
-        <v>0.2876158302828031</v>
+        <v>0.2876158302827818</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -719,25 +719,25 @@
         <v>6.042116995252229</v>
       </c>
       <c r="C10">
-        <v>2.965588627703994</v>
+        <v>2.965588627704619</v>
       </c>
       <c r="D10">
-        <v>0.6144519666597432</v>
+        <v>0.6144519666598853</v>
       </c>
       <c r="E10">
-        <v>0.9793794264249556</v>
+        <v>0.9793794264249414</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.460299567313484</v>
+        <v>4.460299567313569</v>
       </c>
       <c r="H10">
-        <v>2.627828693422884</v>
+        <v>2.627828693422941</v>
       </c>
       <c r="I10">
-        <v>0.3565014693238879</v>
+        <v>0.356501469323895</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.566730299111555</v>
+        <v>6.566730299111214</v>
       </c>
       <c r="C11">
-        <v>3.231927445266763</v>
+        <v>3.231927445266649</v>
       </c>
       <c r="D11">
-        <v>0.6693464039939556</v>
+        <v>0.6693464039938419</v>
       </c>
       <c r="E11">
-        <v>1.070316171038897</v>
+        <v>1.070316171038812</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.84070058010937</v>
+        <v>4.840700580109342</v>
       </c>
       <c r="H11">
-        <v>2.840508277759071</v>
+        <v>2.840508277759056</v>
       </c>
       <c r="I11">
-        <v>0.3900961076252827</v>
+        <v>0.390096107625304</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.769967228401015</v>
+        <v>6.769967228400901</v>
       </c>
       <c r="C12">
-        <v>3.335481518895733</v>
+        <v>3.335481518896131</v>
       </c>
       <c r="D12">
-        <v>0.6907190567280566</v>
+        <v>0.6907190567278576</v>
       </c>
       <c r="E12">
-        <v>1.105821330343318</v>
+        <v>1.105821330343204</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.989498984308739</v>
+        <v>4.989498984308796</v>
       </c>
       <c r="H12">
-        <v>2.923874604526048</v>
+        <v>2.923874604526077</v>
       </c>
       <c r="I12">
-        <v>0.4032301053871237</v>
+        <v>0.4032301053871592</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -833,25 +833,25 @@
         <v>6.725975311309355</v>
       </c>
       <c r="C13">
-        <v>3.313048803714082</v>
+        <v>3.313048803713912</v>
       </c>
       <c r="D13">
-        <v>0.6860878256327112</v>
+        <v>0.6860878256326828</v>
       </c>
       <c r="E13">
-        <v>1.098122876244759</v>
+        <v>1.098122876244787</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.957223959355986</v>
+        <v>4.957223959356043</v>
       </c>
       <c r="H13">
-        <v>2.905784102160467</v>
+        <v>2.905784102160524</v>
       </c>
       <c r="I13">
-        <v>0.4003814649082642</v>
+        <v>0.4003814649082784</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.583352725606574</v>
+        <v>6.58335272560646</v>
       </c>
       <c r="C14">
-        <v>3.240389104281974</v>
+        <v>3.240389104281746</v>
       </c>
       <c r="D14">
-        <v>0.6710922274471045</v>
+        <v>0.6710922274471329</v>
       </c>
       <c r="E14">
-        <v>1.073214271332262</v>
+        <v>1.073214271332319</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,10 +886,10 @@
         <v>4.852840953473532</v>
       </c>
       <c r="H14">
-        <v>2.847306536150484</v>
+        <v>2.847306536150441</v>
       </c>
       <c r="I14">
-        <v>0.3911677960697872</v>
+        <v>0.3911677960697659</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.496620428330516</v>
+        <v>6.49662042833063</v>
       </c>
       <c r="C15">
-        <v>3.196253345375055</v>
+        <v>3.1962533453746</v>
       </c>
       <c r="D15">
-        <v>0.6619872441424093</v>
+        <v>0.6619872441425798</v>
       </c>
       <c r="E15">
-        <v>1.058103963272387</v>
+        <v>1.058103963272401</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.789553458228937</v>
+        <v>4.789553458229051</v>
       </c>
       <c r="H15">
-        <v>2.811874407792786</v>
+        <v>2.811874407792843</v>
       </c>
       <c r="I15">
-        <v>0.3855808748881131</v>
+        <v>0.3855808748881486</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -947,25 +947,25 @@
         <v>6.00841623961486</v>
       </c>
       <c r="C16">
-        <v>2.948526487954894</v>
+        <v>2.948526487955576</v>
       </c>
       <c r="D16">
-        <v>0.6109392899245165</v>
+        <v>0.610939289924147</v>
       </c>
       <c r="E16">
-        <v>0.9735726429717886</v>
+        <v>0.9735726429717744</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.436048107991667</v>
+        <v>4.436048107991695</v>
       </c>
       <c r="H16">
-        <v>2.614292620898553</v>
+        <v>2.61429262089851</v>
       </c>
       <c r="I16">
-        <v>0.3543584064766208</v>
+        <v>0.354358406476635</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.715992828949936</v>
+        <v>5.715992828949823</v>
       </c>
       <c r="C17">
-        <v>2.800715642973898</v>
+        <v>2.800715642973955</v>
       </c>
       <c r="D17">
-        <v>0.5805301304420425</v>
+        <v>0.5805301304422414</v>
       </c>
       <c r="E17">
-        <v>0.923363086614529</v>
+        <v>0.9233630866146427</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,10 +1000,10 @@
         <v>4.226576573596134</v>
       </c>
       <c r="H17">
-        <v>2.497494956805923</v>
+        <v>2.497494956805909</v>
       </c>
       <c r="I17">
-        <v>0.3358383747277998</v>
+        <v>0.3358383747278424</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.550108975014041</v>
+        <v>5.550108975013984</v>
       </c>
       <c r="C18">
-        <v>2.717056103751759</v>
+        <v>2.717056103751872</v>
       </c>
       <c r="D18">
-        <v>0.5633366532315449</v>
+        <v>0.563336653231346</v>
       </c>
       <c r="E18">
-        <v>0.8950208295558326</v>
+        <v>0.8950208295558753</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.108524975314936</v>
+        <v>4.108524975314992</v>
       </c>
       <c r="H18">
-        <v>2.431769363737899</v>
+        <v>2.431769363737914</v>
       </c>
       <c r="I18">
-        <v>0.3253923167442991</v>
+        <v>0.3253923167442849</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.494315210949935</v>
+        <v>5.494315210949821</v>
       </c>
       <c r="C19">
-        <v>2.688948624172383</v>
+        <v>2.688948624172895</v>
       </c>
       <c r="D19">
-        <v>0.5575631067067377</v>
+        <v>0.5575631067067093</v>
       </c>
       <c r="E19">
         <v>0.8855109171753526</v>
@@ -1073,13 +1073,13 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.068947393729644</v>
+        <v>4.068947393729701</v>
       </c>
       <c r="H19">
-        <v>2.409750794179772</v>
+        <v>2.4097507941798</v>
       </c>
       <c r="I19">
-        <v>0.3218885563156775</v>
+        <v>0.3218885563156704</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.746876575052113</v>
+        <v>5.746876575052454</v>
       </c>
       <c r="C20">
-        <v>2.816306250640935</v>
+        <v>2.816306250641333</v>
       </c>
       <c r="D20">
-        <v>0.5837357258411373</v>
+        <v>0.5837357258415068</v>
       </c>
       <c r="E20">
-        <v>0.9286509635717266</v>
+        <v>0.9286509635716413</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.24861754980779</v>
+        <v>4.248617549807847</v>
       </c>
       <c r="H20">
-        <v>2.509774298962441</v>
+        <v>2.509774298962498</v>
       </c>
       <c r="I20">
-        <v>0.3377879618983002</v>
+        <v>0.3377879618983286</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.625111494174746</v>
+        <v>6.625111494174405</v>
       </c>
       <c r="C21">
-        <v>3.261652611446095</v>
+        <v>3.261652611445527</v>
       </c>
       <c r="D21">
-        <v>0.67547981756951</v>
+        <v>0.6754798175697942</v>
       </c>
       <c r="E21">
-        <v>1.080499424026712</v>
+        <v>1.08049942402657</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.883363279364005</v>
+        <v>4.883363279363863</v>
       </c>
       <c r="H21">
-        <v>2.864400967694678</v>
+        <v>2.864400967694607</v>
       </c>
       <c r="I21">
-        <v>0.3938620626966554</v>
+        <v>0.3938620626965914</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>3.568810734585213</v>
       </c>
       <c r="D22">
-        <v>0.7389306204814829</v>
+        <v>0.7389306204815114</v>
       </c>
       <c r="E22">
-        <v>1.186126091429585</v>
+        <v>1.186126091429642</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.326506582097352</v>
+        <v>5.326506582097267</v>
       </c>
       <c r="H22">
-        <v>3.11302533359428</v>
+        <v>3.113025333594209</v>
       </c>
       <c r="I22">
-        <v>0.4329734177821436</v>
+        <v>0.4329734177821365</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.902601973920923</v>
+        <v>6.90260197392081</v>
       </c>
       <c r="C23">
-        <v>3.403175333772822</v>
+        <v>3.403175333772765</v>
       </c>
       <c r="D23">
-        <v>0.7046987207856716</v>
+        <v>0.7046987207858706</v>
       </c>
       <c r="E23">
-        <v>1.129076080066355</v>
+        <v>1.129076080066312</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5.087028913582884</v>
+        <v>5.087028913582827</v>
       </c>
       <c r="H23">
-        <v>2.978567537608058</v>
+        <v>2.978567537608015</v>
       </c>
       <c r="I23">
-        <v>0.4118378664344462</v>
+        <v>0.4118378664344249</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.732907142125498</v>
+        <v>5.732907142125441</v>
       </c>
       <c r="C24">
-        <v>2.809253669249529</v>
+        <v>2.809253669249756</v>
       </c>
       <c r="D24">
-        <v>0.5822855840293357</v>
+        <v>0.5822855840295631</v>
       </c>
       <c r="E24">
-        <v>0.9262586986980637</v>
+        <v>0.9262586986981205</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.238645489667761</v>
+        <v>4.238645489667817</v>
       </c>
       <c r="H24">
         <v>2.504218415710227</v>
       </c>
       <c r="I24">
-        <v>0.336905932648996</v>
+        <v>0.3369059326489747</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.557432060667168</v>
+        <v>4.557432060667225</v>
       </c>
       <c r="C25">
         <v>2.219277133650337</v>
       </c>
       <c r="D25">
-        <v>0.4613388281926802</v>
+        <v>0.4613388281928508</v>
       </c>
       <c r="E25">
-        <v>0.7275356402503945</v>
+        <v>0.7275356402503661</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.414389878999145</v>
+        <v>3.414389878999174</v>
       </c>
       <c r="H25">
         <v>2.046896095427002</v>
       </c>
       <c r="I25">
-        <v>0.2637767349961493</v>
+        <v>0.2637767349961564</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_0/res_line/pl_mw.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.740115582481224</v>
+        <v>3.740115582480939</v>
       </c>
       <c r="C2">
-        <v>1.813102670564376</v>
+        <v>1.813102670564547</v>
       </c>
       <c r="D2">
-        <v>0.3785802840023678</v>
+        <v>0.3785802840027372</v>
       </c>
       <c r="E2">
-        <v>0.5923878209179989</v>
+        <v>0.5923878209179705</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.860015647755191</v>
+        <v>2.860015647755205</v>
       </c>
       <c r="H2">
         <v>1.741817904547517</v>
       </c>
       <c r="I2">
-        <v>0.2141896006442607</v>
+        <v>0.2141896006442678</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -453,13 +453,13 @@
         <v>3.206660667633287</v>
       </c>
       <c r="C3">
-        <v>1.549801537426788</v>
+        <v>1.549801537426674</v>
       </c>
       <c r="D3">
-        <v>0.3252215532586291</v>
+        <v>0.3252215532592544</v>
       </c>
       <c r="E3">
-        <v>0.50555527678884</v>
+        <v>0.5055552767888969</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>1.549210209536056</v>
       </c>
       <c r="I3">
-        <v>0.1823848579434326</v>
+        <v>0.1823848579434717</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.886680526482905</v>
+        <v>2.886680526482849</v>
       </c>
       <c r="C4">
         <v>1.392562551687774</v>
@@ -497,7 +497,7 @@
         <v>0.293489842610299</v>
       </c>
       <c r="E4">
-        <v>0.4540126092982533</v>
+        <v>0.4540126092982888</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>1.436450825108253</v>
       </c>
       <c r="I4">
-        <v>0.1635237661131619</v>
+        <v>0.1635237661131512</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.757866469640589</v>
+        <v>2.75786646964076</v>
       </c>
       <c r="C5">
-        <v>1.329412625010207</v>
+        <v>1.329412625010264</v>
       </c>
       <c r="D5">
-        <v>0.2807779757727218</v>
+        <v>0.280777975773006</v>
       </c>
       <c r="E5">
-        <v>0.4333815145645588</v>
+        <v>0.4333815145646156</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.21759580818491</v>
+        <v>2.217595808184925</v>
       </c>
       <c r="H5">
-        <v>1.391695012561016</v>
+        <v>1.391695012561001</v>
       </c>
       <c r="I5">
-        <v>0.155977494276982</v>
+        <v>0.1559774942769856</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.736563826464419</v>
+        <v>2.736563826464192</v>
       </c>
       <c r="C6">
-        <v>1.318977548137298</v>
+        <v>1.318977548136843</v>
       </c>
       <c r="D6">
-        <v>0.2786793339182054</v>
+        <v>0.2786793339184754</v>
       </c>
       <c r="E6">
-        <v>0.4299763151332883</v>
+        <v>0.4299763151333735</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.20399164450987</v>
+        <v>2.203991644509884</v>
       </c>
       <c r="H6">
-        <v>1.38433040554186</v>
+        <v>1.384330405541832</v>
       </c>
       <c r="I6">
-        <v>0.1547321366017265</v>
+        <v>0.1547321366017691</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.884937290815287</v>
+        <v>2.884937290815344</v>
       </c>
       <c r="C7">
-        <v>1.391707369460335</v>
+        <v>1.391707369460505</v>
       </c>
       <c r="D7">
-        <v>0.293317568271533</v>
+        <v>0.2933175682714904</v>
       </c>
       <c r="E7">
-        <v>0.4537329502868914</v>
+        <v>0.4537329502869127</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>2.299056641914476</v>
       </c>
       <c r="H7">
-        <v>1.435842628725624</v>
+        <v>1.435842628725652</v>
       </c>
       <c r="I7">
-        <v>0.1634214627462356</v>
+        <v>0.1634214627462214</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -643,25 +643,25 @@
         <v>3.554403267325142</v>
       </c>
       <c r="C8">
-        <v>1.721276176954234</v>
+        <v>1.721276176953893</v>
       </c>
       <c r="D8">
-        <v>0.3599423826171488</v>
+        <v>0.3599423826172625</v>
       </c>
       <c r="E8">
-        <v>0.5620329073452695</v>
+        <v>0.5620329073452979</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.736428069192513</v>
+        <v>2.736428069192527</v>
       </c>
       <c r="H8">
         <v>1.674143024330462</v>
       </c>
       <c r="I8">
-        <v>0.2030667442500977</v>
+        <v>0.2030667442500409</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.944425840669396</v>
+        <v>4.944425840669453</v>
       </c>
       <c r="C9">
-        <v>2.412754835143801</v>
+        <v>2.412754835144312</v>
       </c>
       <c r="D9">
-        <v>0.500917087130432</v>
+        <v>0.5009170871298068</v>
       </c>
       <c r="E9">
-        <v>0.7923970301631584</v>
+        <v>0.7923970301631442</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.682420272163853</v>
+        <v>3.682420272163796</v>
       </c>
       <c r="H9">
         <v>2.195167989873127</v>
       </c>
       <c r="I9">
-        <v>0.2876158302827818</v>
+        <v>0.2876158302828031</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -719,25 +719,25 @@
         <v>6.042116995252229</v>
       </c>
       <c r="C10">
-        <v>2.965588627704619</v>
+        <v>2.965588627703994</v>
       </c>
       <c r="D10">
-        <v>0.6144519666598853</v>
+        <v>0.6144519666597432</v>
       </c>
       <c r="E10">
-        <v>0.9793794264249414</v>
+        <v>0.9793794264249556</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.460299567313569</v>
+        <v>4.460299567313484</v>
       </c>
       <c r="H10">
-        <v>2.627828693422941</v>
+        <v>2.627828693422884</v>
       </c>
       <c r="I10">
-        <v>0.356501469323895</v>
+        <v>0.3565014693238879</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.566730299111214</v>
+        <v>6.566730299111555</v>
       </c>
       <c r="C11">
-        <v>3.231927445266649</v>
+        <v>3.231927445266763</v>
       </c>
       <c r="D11">
-        <v>0.6693464039938419</v>
+        <v>0.6693464039939556</v>
       </c>
       <c r="E11">
-        <v>1.070316171038812</v>
+        <v>1.070316171038897</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.840700580109342</v>
+        <v>4.84070058010937</v>
       </c>
       <c r="H11">
-        <v>2.840508277759056</v>
+        <v>2.840508277759071</v>
       </c>
       <c r="I11">
-        <v>0.390096107625304</v>
+        <v>0.3900961076252827</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.769967228400901</v>
+        <v>6.769967228401015</v>
       </c>
       <c r="C12">
-        <v>3.335481518896131</v>
+        <v>3.335481518895733</v>
       </c>
       <c r="D12">
-        <v>0.6907190567278576</v>
+        <v>0.6907190567280566</v>
       </c>
       <c r="E12">
-        <v>1.105821330343204</v>
+        <v>1.105821330343318</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.989498984308796</v>
+        <v>4.989498984308739</v>
       </c>
       <c r="H12">
-        <v>2.923874604526077</v>
+        <v>2.923874604526048</v>
       </c>
       <c r="I12">
-        <v>0.4032301053871592</v>
+        <v>0.4032301053871237</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -833,25 +833,25 @@
         <v>6.725975311309355</v>
       </c>
       <c r="C13">
-        <v>3.313048803713912</v>
+        <v>3.313048803714082</v>
       </c>
       <c r="D13">
-        <v>0.6860878256326828</v>
+        <v>0.6860878256327112</v>
       </c>
       <c r="E13">
-        <v>1.098122876244787</v>
+        <v>1.098122876244759</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.957223959356043</v>
+        <v>4.957223959355986</v>
       </c>
       <c r="H13">
-        <v>2.905784102160524</v>
+        <v>2.905784102160467</v>
       </c>
       <c r="I13">
-        <v>0.4003814649082784</v>
+        <v>0.4003814649082642</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.58335272560646</v>
+        <v>6.583352725606574</v>
       </c>
       <c r="C14">
-        <v>3.240389104281746</v>
+        <v>3.240389104281974</v>
       </c>
       <c r="D14">
-        <v>0.6710922274471329</v>
+        <v>0.6710922274471045</v>
       </c>
       <c r="E14">
-        <v>1.073214271332319</v>
+        <v>1.073214271332262</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,10 +886,10 @@
         <v>4.852840953473532</v>
       </c>
       <c r="H14">
-        <v>2.847306536150441</v>
+        <v>2.847306536150484</v>
       </c>
       <c r="I14">
-        <v>0.3911677960697659</v>
+        <v>0.3911677960697872</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.49662042833063</v>
+        <v>6.496620428330516</v>
       </c>
       <c r="C15">
-        <v>3.1962533453746</v>
+        <v>3.196253345375055</v>
       </c>
       <c r="D15">
-        <v>0.6619872441425798</v>
+        <v>0.6619872441424093</v>
       </c>
       <c r="E15">
-        <v>1.058103963272401</v>
+        <v>1.058103963272387</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.789553458229051</v>
+        <v>4.789553458228937</v>
       </c>
       <c r="H15">
-        <v>2.811874407792843</v>
+        <v>2.811874407792786</v>
       </c>
       <c r="I15">
-        <v>0.3855808748881486</v>
+        <v>0.3855808748881131</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -947,25 +947,25 @@
         <v>6.00841623961486</v>
       </c>
       <c r="C16">
-        <v>2.948526487955576</v>
+        <v>2.948526487954894</v>
       </c>
       <c r="D16">
-        <v>0.610939289924147</v>
+        <v>0.6109392899245165</v>
       </c>
       <c r="E16">
-        <v>0.9735726429717744</v>
+        <v>0.9735726429717886</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.436048107991695</v>
+        <v>4.436048107991667</v>
       </c>
       <c r="H16">
-        <v>2.61429262089851</v>
+        <v>2.614292620898553</v>
       </c>
       <c r="I16">
-        <v>0.354358406476635</v>
+        <v>0.3543584064766208</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.715992828949823</v>
+        <v>5.715992828949936</v>
       </c>
       <c r="C17">
-        <v>2.800715642973955</v>
+        <v>2.800715642973898</v>
       </c>
       <c r="D17">
-        <v>0.5805301304422414</v>
+        <v>0.5805301304420425</v>
       </c>
       <c r="E17">
-        <v>0.9233630866146427</v>
+        <v>0.923363086614529</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,10 +1000,10 @@
         <v>4.226576573596134</v>
       </c>
       <c r="H17">
-        <v>2.497494956805909</v>
+        <v>2.497494956805923</v>
       </c>
       <c r="I17">
-        <v>0.3358383747278424</v>
+        <v>0.3358383747277998</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.550108975013984</v>
+        <v>5.550108975014041</v>
       </c>
       <c r="C18">
-        <v>2.717056103751872</v>
+        <v>2.717056103751759</v>
       </c>
       <c r="D18">
-        <v>0.563336653231346</v>
+        <v>0.5633366532315449</v>
       </c>
       <c r="E18">
-        <v>0.8950208295558753</v>
+        <v>0.8950208295558326</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.108524975314992</v>
+        <v>4.108524975314936</v>
       </c>
       <c r="H18">
-        <v>2.431769363737914</v>
+        <v>2.431769363737899</v>
       </c>
       <c r="I18">
-        <v>0.3253923167442849</v>
+        <v>0.3253923167442991</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.494315210949821</v>
+        <v>5.494315210949935</v>
       </c>
       <c r="C19">
-        <v>2.688948624172895</v>
+        <v>2.688948624172383</v>
       </c>
       <c r="D19">
-        <v>0.5575631067067093</v>
+        <v>0.5575631067067377</v>
       </c>
       <c r="E19">
         <v>0.8855109171753526</v>
@@ -1073,13 +1073,13 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.068947393729701</v>
+        <v>4.068947393729644</v>
       </c>
       <c r="H19">
-        <v>2.4097507941798</v>
+        <v>2.409750794179772</v>
       </c>
       <c r="I19">
-        <v>0.3218885563156704</v>
+        <v>0.3218885563156775</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.746876575052454</v>
+        <v>5.746876575052113</v>
       </c>
       <c r="C20">
-        <v>2.816306250641333</v>
+        <v>2.816306250640935</v>
       </c>
       <c r="D20">
-        <v>0.5837357258415068</v>
+        <v>0.5837357258411373</v>
       </c>
       <c r="E20">
-        <v>0.9286509635716413</v>
+        <v>0.9286509635717266</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.248617549807847</v>
+        <v>4.24861754980779</v>
       </c>
       <c r="H20">
-        <v>2.509774298962498</v>
+        <v>2.509774298962441</v>
       </c>
       <c r="I20">
-        <v>0.3377879618983286</v>
+        <v>0.3377879618983002</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.625111494174405</v>
+        <v>6.625111494174746</v>
       </c>
       <c r="C21">
-        <v>3.261652611445527</v>
+        <v>3.261652611446095</v>
       </c>
       <c r="D21">
-        <v>0.6754798175697942</v>
+        <v>0.67547981756951</v>
       </c>
       <c r="E21">
-        <v>1.08049942402657</v>
+        <v>1.080499424026712</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.883363279363863</v>
+        <v>4.883363279364005</v>
       </c>
       <c r="H21">
-        <v>2.864400967694607</v>
+        <v>2.864400967694678</v>
       </c>
       <c r="I21">
-        <v>0.3938620626965914</v>
+        <v>0.3938620626966554</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>3.568810734585213</v>
       </c>
       <c r="D22">
-        <v>0.7389306204815114</v>
+        <v>0.7389306204814829</v>
       </c>
       <c r="E22">
-        <v>1.186126091429642</v>
+        <v>1.186126091429585</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.326506582097267</v>
+        <v>5.326506582097352</v>
       </c>
       <c r="H22">
-        <v>3.113025333594209</v>
+        <v>3.11302533359428</v>
       </c>
       <c r="I22">
-        <v>0.4329734177821365</v>
+        <v>0.4329734177821436</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.90260197392081</v>
+        <v>6.902601973920923</v>
       </c>
       <c r="C23">
-        <v>3.403175333772765</v>
+        <v>3.403175333772822</v>
       </c>
       <c r="D23">
-        <v>0.7046987207858706</v>
+        <v>0.7046987207856716</v>
       </c>
       <c r="E23">
-        <v>1.129076080066312</v>
+        <v>1.129076080066355</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5.087028913582827</v>
+        <v>5.087028913582884</v>
       </c>
       <c r="H23">
-        <v>2.978567537608015</v>
+        <v>2.978567537608058</v>
       </c>
       <c r="I23">
-        <v>0.4118378664344249</v>
+        <v>0.4118378664344462</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.732907142125441</v>
+        <v>5.732907142125498</v>
       </c>
       <c r="C24">
-        <v>2.809253669249756</v>
+        <v>2.809253669249529</v>
       </c>
       <c r="D24">
-        <v>0.5822855840295631</v>
+        <v>0.5822855840293357</v>
       </c>
       <c r="E24">
-        <v>0.9262586986981205</v>
+        <v>0.9262586986980637</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.238645489667817</v>
+        <v>4.238645489667761</v>
       </c>
       <c r="H24">
         <v>2.504218415710227</v>
       </c>
       <c r="I24">
-        <v>0.3369059326489747</v>
+        <v>0.336905932648996</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.557432060667225</v>
+        <v>4.557432060667168</v>
       </c>
       <c r="C25">
         <v>2.219277133650337</v>
       </c>
       <c r="D25">
-        <v>0.4613388281928508</v>
+        <v>0.4613388281926802</v>
       </c>
       <c r="E25">
-        <v>0.7275356402503661</v>
+        <v>0.7275356402503945</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.414389878999174</v>
+        <v>3.414389878999145</v>
       </c>
       <c r="H25">
         <v>2.046896095427002</v>
       </c>
       <c r="I25">
-        <v>0.2637767349961564</v>
+        <v>0.2637767349961493</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,37 +406,40 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.740115582480939</v>
+        <v>3.739616556944895</v>
       </c>
       <c r="C2">
-        <v>1.813102670564547</v>
+        <v>1.811398390377008</v>
       </c>
       <c r="D2">
-        <v>0.3785802840027372</v>
+        <v>0.378552391619678</v>
       </c>
       <c r="E2">
-        <v>0.5923878209179705</v>
+        <v>0.5923409581098085</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.860015647755205</v>
+        <v>0.9353331843948922</v>
       </c>
       <c r="H2">
-        <v>1.741817904547517</v>
+        <v>1.919252698780312</v>
       </c>
       <c r="I2">
-        <v>0.2141896006442678</v>
+        <v>1.736422208545321</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2141722557759209</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -444,37 +447,40 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.206660667633287</v>
+        <v>3.206337924204718</v>
       </c>
       <c r="C3">
-        <v>1.549801537426674</v>
+        <v>1.548381082946889</v>
       </c>
       <c r="D3">
-        <v>0.3252215532592544</v>
+        <v>0.3252039852873168</v>
       </c>
       <c r="E3">
-        <v>0.5055552767888969</v>
+        <v>0.5055256935212853</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.507587352843871</v>
+        <v>0.8141062687963228</v>
       </c>
       <c r="H3">
-        <v>1.549210209536056</v>
+        <v>1.689399552419275</v>
       </c>
       <c r="I3">
-        <v>0.1823848579434717</v>
+        <v>1.544505357231387</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.182373909495535</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -482,37 +488,40 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.886680526482849</v>
+        <v>2.886447165472248</v>
       </c>
       <c r="C4">
-        <v>1.392562551687774</v>
+        <v>1.391304250305154</v>
       </c>
       <c r="D4">
-        <v>0.293489842610299</v>
+        <v>0.2934773539810891</v>
       </c>
       <c r="E4">
-        <v>0.4540126092982888</v>
+        <v>0.4539915191481256</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.300177829510588</v>
+        <v>0.7426362989353379</v>
       </c>
       <c r="H4">
-        <v>1.436450825108253</v>
+        <v>1.554258783263023</v>
       </c>
       <c r="I4">
-        <v>0.1635237661131512</v>
+        <v>1.432156437986905</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1635159577137308</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -520,37 +529,40 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.75786646964076</v>
+        <v>2.757665591880595</v>
       </c>
       <c r="C5">
-        <v>1.329412625010264</v>
+        <v>1.328217897304341</v>
       </c>
       <c r="D5">
-        <v>0.280777975773006</v>
+        <v>0.2807673041553471</v>
       </c>
       <c r="E5">
-        <v>0.4333815145646156</v>
+        <v>0.4333634641994308</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.217595808184925</v>
+        <v>0.7141489770184961</v>
       </c>
       <c r="H5">
-        <v>1.391695012561001</v>
+        <v>1.500483617993126</v>
       </c>
       <c r="I5">
-        <v>0.1559774942769856</v>
+        <v>1.387565099695294</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.155970809350908</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -558,37 +570,40 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.736563826464192</v>
+        <v>2.736368125318734</v>
       </c>
       <c r="C6">
-        <v>1.318977548136843</v>
+        <v>1.317793239623995</v>
       </c>
       <c r="D6">
-        <v>0.2786793339184754</v>
+        <v>0.2786689503740263</v>
       </c>
       <c r="E6">
-        <v>0.4299763151333735</v>
+        <v>0.4299587468957071</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.203991644509884</v>
+        <v>0.7094542649576709</v>
       </c>
       <c r="H6">
-        <v>1.384330405541832</v>
+        <v>1.491626898738247</v>
       </c>
       <c r="I6">
-        <v>0.1547321366017691</v>
+        <v>1.380227652012593</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1547256298568556</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,37 +611,40 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.884937290815344</v>
+        <v>2.884704382883797</v>
       </c>
       <c r="C7">
-        <v>1.391707369460505</v>
+        <v>1.390449934947299</v>
       </c>
       <c r="D7">
-        <v>0.2933175682714904</v>
+        <v>0.2933051050962945</v>
       </c>
       <c r="E7">
-        <v>0.4537329502869127</v>
+        <v>0.4537119027079015</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.299056641914476</v>
+        <v>0.7422496616006384</v>
       </c>
       <c r="H7">
-        <v>1.435842628725652</v>
+        <v>1.553528564946532</v>
       </c>
       <c r="I7">
-        <v>0.1634214627462214</v>
+        <v>1.431550470281081</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1634136700815425</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -634,37 +652,40 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.554403267325142</v>
+        <v>3.553969466357785</v>
       </c>
       <c r="C8">
-        <v>1.721276176953893</v>
+        <v>1.719672632068864</v>
       </c>
       <c r="D8">
-        <v>0.3599423826172625</v>
+        <v>0.3599183544230442</v>
       </c>
       <c r="E8">
-        <v>0.5620329073452979</v>
+        <v>0.561992516562853</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.736428069192527</v>
+        <v>0.8928494510937526</v>
       </c>
       <c r="H8">
-        <v>1.674143024330462</v>
+        <v>1.83862061602953</v>
       </c>
       <c r="I8">
-        <v>0.2030667442500409</v>
+        <v>1.668988807071386</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2030517965429226</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -672,37 +693,40 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.944425840669453</v>
+        <v>4.943402772687193</v>
       </c>
       <c r="C9">
-        <v>2.412754835144312</v>
+        <v>2.41034566080458</v>
       </c>
       <c r="D9">
-        <v>0.5009170871298068</v>
+        <v>0.500856598250806</v>
       </c>
       <c r="E9">
-        <v>0.7923970301631442</v>
+        <v>0.7922952526581923</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.682420272163796</v>
+        <v>1.217444440000094</v>
       </c>
       <c r="H9">
-        <v>2.195167989873127</v>
+        <v>2.456420369423967</v>
       </c>
       <c r="I9">
-        <v>0.2876158302828031</v>
+        <v>2.188177894264328</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2875780766014486</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -710,37 +734,40 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.042116995252229</v>
+        <v>6.040456699555421</v>
       </c>
       <c r="C10">
-        <v>2.965588627703994</v>
+        <v>2.962453222364559</v>
       </c>
       <c r="D10">
-        <v>0.6144519666597432</v>
+        <v>0.6143489303148613</v>
       </c>
       <c r="E10">
-        <v>0.9793794264249556</v>
+        <v>0.9792050844898341</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.460299567313484</v>
+        <v>1.483567457709484</v>
       </c>
       <c r="H10">
-        <v>2.627828693422884</v>
+        <v>2.96521648119554</v>
       </c>
       <c r="I10">
-        <v>0.3565014693238879</v>
+        <v>2.619334913705643</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3564365788025583</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -748,37 +775,40 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.566730299111555</v>
+        <v>6.564707421562048</v>
       </c>
       <c r="C11">
-        <v>3.231927445266763</v>
+        <v>3.228413714570365</v>
       </c>
       <c r="D11">
-        <v>0.6693464039939556</v>
+        <v>0.6692180207321599</v>
       </c>
       <c r="E11">
-        <v>1.070316171038897</v>
+        <v>1.070098163881738</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.84070058010937</v>
+        <v>1.613515747251483</v>
       </c>
       <c r="H11">
-        <v>2.840508277759071</v>
+        <v>3.214211880140937</v>
       </c>
       <c r="I11">
-        <v>0.3900961076252827</v>
+        <v>2.831275582475612</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3900148093426665</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -786,37 +816,40 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.769967228401015</v>
+        <v>6.767793140909703</v>
       </c>
       <c r="C12">
-        <v>3.335481518895733</v>
+        <v>3.331815355336573</v>
       </c>
       <c r="D12">
-        <v>0.6907190567280566</v>
+        <v>0.6905798884816079</v>
       </c>
       <c r="E12">
-        <v>1.105821330343318</v>
+        <v>1.10558465271663</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.989498984308739</v>
+        <v>1.664316955880707</v>
       </c>
       <c r="H12">
-        <v>2.923874604526048</v>
+        <v>3.311636396662607</v>
       </c>
       <c r="I12">
-        <v>0.4032301053871237</v>
+        <v>2.91435169609673</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4031417754297095</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -824,37 +857,40 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.725975311309355</v>
+        <v>6.723834476591264</v>
       </c>
       <c r="C13">
-        <v>3.313048803714082</v>
+        <v>3.309415922015148</v>
       </c>
       <c r="D13">
-        <v>0.6860878256327112</v>
+        <v>0.6859510394669428</v>
       </c>
       <c r="E13">
-        <v>1.098122876244759</v>
+        <v>1.097890326898508</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.957223959355986</v>
+        <v>1.653299297837606</v>
       </c>
       <c r="H13">
-        <v>2.905784102160467</v>
+        <v>3.290503387730723</v>
       </c>
       <c r="I13">
-        <v>0.4003814649082642</v>
+        <v>2.896324207986282</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4002946905343663</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -862,37 +898,40 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.583352725606574</v>
+        <v>6.58131771085084</v>
       </c>
       <c r="C14">
-        <v>3.240389104281974</v>
+        <v>3.236863032484393</v>
       </c>
       <c r="D14">
-        <v>0.6710922274471045</v>
+        <v>0.6709629829971959</v>
       </c>
       <c r="E14">
-        <v>1.073214271332262</v>
+        <v>1.07299477527377</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.852840953473532</v>
+        <v>1.617661187566114</v>
       </c>
       <c r="H14">
-        <v>2.847306536150484</v>
+        <v>3.222160149556146</v>
       </c>
       <c r="I14">
-        <v>0.3911677960697872</v>
+        <v>2.838050190677009</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3910859373767224</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -900,37 +939,40 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.496620428330516</v>
+        <v>6.494648296880882</v>
       </c>
       <c r="C15">
-        <v>3.196253345375055</v>
+        <v>3.192791422712958</v>
       </c>
       <c r="D15">
-        <v>0.6619872441424093</v>
+        <v>0.6618624528895509</v>
       </c>
       <c r="E15">
-        <v>1.058103963272387</v>
+        <v>1.057892162610955</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.789553458228937</v>
+        <v>1.596049906619072</v>
       </c>
       <c r="H15">
-        <v>2.811874407792786</v>
+        <v>3.180727078379277</v>
       </c>
       <c r="I15">
-        <v>0.3855808748881131</v>
+        <v>2.802741298644364</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3855019120338028</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -938,37 +980,40 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.00841623961486</v>
+        <v>6.006777907485798</v>
       </c>
       <c r="C16">
-        <v>2.948526487954894</v>
+        <v>2.945414664700536</v>
       </c>
       <c r="D16">
-        <v>0.6109392899245165</v>
+        <v>0.6108377643929543</v>
       </c>
       <c r="E16">
-        <v>0.9735726429717886</v>
+        <v>0.9734008938715561</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.436048107991667</v>
+        <v>1.475279041700645</v>
       </c>
       <c r="H16">
-        <v>2.614292620898553</v>
+        <v>2.949346064182947</v>
       </c>
       <c r="I16">
-        <v>0.3543584064766208</v>
+        <v>2.605845829847368</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3542944885093888</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -976,37 +1021,40 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.715992828949936</v>
+        <v>5.714538540329727</v>
       </c>
       <c r="C17">
-        <v>2.800715642973898</v>
+        <v>2.797804918678082</v>
       </c>
       <c r="D17">
-        <v>0.5805301304420425</v>
+        <v>0.580441147292504</v>
       </c>
       <c r="E17">
-        <v>0.923363086614529</v>
+        <v>0.9232128180035915</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.226576573596134</v>
+        <v>1.403667152856428</v>
       </c>
       <c r="H17">
-        <v>2.497494956805923</v>
+        <v>2.812285330203849</v>
       </c>
       <c r="I17">
-        <v>0.3358383747277998</v>
+        <v>2.489453592261881</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3357825060115687</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1014,37 +1062,40 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.550108975014041</v>
+        <v>5.548753961808472</v>
       </c>
       <c r="C18">
-        <v>2.717056103751759</v>
+        <v>2.714256703862077</v>
       </c>
       <c r="D18">
-        <v>0.5633366532315449</v>
+        <v>0.5632543451717709</v>
       </c>
       <c r="E18">
-        <v>0.8950208295558326</v>
+        <v>0.8948819597799371</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.108524975314936</v>
+        <v>1.363291773628163</v>
       </c>
       <c r="H18">
-        <v>2.431769363737899</v>
+        <v>2.735058566531563</v>
       </c>
       <c r="I18">
-        <v>0.3253923167442991</v>
+        <v>2.423956211837023</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3253407135076074</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1052,37 +1103,40 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.494315210949935</v>
+        <v>5.492992767432042</v>
       </c>
       <c r="C19">
-        <v>2.688948624172383</v>
+        <v>2.686186228512781</v>
       </c>
       <c r="D19">
-        <v>0.5575631067067377</v>
+        <v>0.5574829741990186</v>
       </c>
       <c r="E19">
-        <v>0.8855109171753526</v>
+        <v>0.8853757574322856</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.068947393729644</v>
+        <v>1.34975276510238</v>
       </c>
       <c r="H19">
-        <v>2.409750794179772</v>
+        <v>2.709170569902113</v>
       </c>
       <c r="I19">
-        <v>0.3218885563156775</v>
+        <v>2.402014120399116</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3218383404661012</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1090,37 +1144,40 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.746876575052113</v>
+        <v>5.745403397204711</v>
       </c>
       <c r="C20">
-        <v>2.816306250640935</v>
+        <v>2.813374582528354</v>
       </c>
       <c r="D20">
-        <v>0.5837357258411373</v>
+        <v>0.5836454652920509</v>
       </c>
       <c r="E20">
-        <v>0.9286509635717266</v>
+        <v>0.9284985109309076</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.24861754980779</v>
+        <v>1.41120408897666</v>
       </c>
       <c r="H20">
-        <v>2.509774298962441</v>
+        <v>2.826705396474694</v>
       </c>
       <c r="I20">
-        <v>0.3377879618983002</v>
+        <v>2.501690306977395</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3377312754331285</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1128,37 +1185,40 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.625111494174746</v>
+        <v>6.623045808659583</v>
       </c>
       <c r="C21">
-        <v>3.261652611446095</v>
+        <v>3.258095437939801</v>
       </c>
       <c r="D21">
-        <v>0.67547981756951</v>
+        <v>0.6753483933645441</v>
       </c>
       <c r="E21">
-        <v>1.080499424026712</v>
+        <v>1.080276157886388</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.883363279364005</v>
+        <v>1.628082836234768</v>
       </c>
       <c r="H21">
-        <v>2.864400967694678</v>
+        <v>3.242143462276402</v>
       </c>
       <c r="I21">
-        <v>0.3938620626966554</v>
+        <v>2.855085141487137</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3937787847094825</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1166,37 +1226,40 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.226396601957731</v>
+        <v>7.22386000317681</v>
       </c>
       <c r="C22">
-        <v>3.568810734585213</v>
+        <v>3.564789605329509</v>
       </c>
       <c r="D22">
-        <v>0.7389306204814829</v>
+        <v>0.7387651214412188</v>
       </c>
       <c r="E22">
-        <v>1.186126091429585</v>
+        <v>1.185843615516859</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.326506582097352</v>
+        <v>1.77931790455429</v>
       </c>
       <c r="H22">
-        <v>3.11302533359428</v>
+        <v>3.532339338853092</v>
       </c>
       <c r="I22">
-        <v>0.4329734177821436</v>
+        <v>3.102841962089897</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.4328678017254006</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1204,37 +1267,40 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.902601973920923</v>
+        <v>6.900325859025997</v>
       </c>
       <c r="C23">
-        <v>3.403175333772822</v>
+        <v>3.399407851414139</v>
       </c>
       <c r="D23">
-        <v>0.7046987207856716</v>
+        <v>0.7045522081596687</v>
       </c>
       <c r="E23">
-        <v>1.129076080066355</v>
+        <v>1.128826658313798</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5.087028913582884</v>
+        <v>1.69760611500655</v>
       </c>
       <c r="H23">
-        <v>2.978567537608058</v>
+        <v>3.375500874629694</v>
       </c>
       <c r="I23">
-        <v>0.4118378664344462</v>
+        <v>2.968853973011548</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.4117447315767748</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1242,37 +1308,40 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.732907142125498</v>
+        <v>5.731442524205761</v>
       </c>
       <c r="C24">
-        <v>2.809253669249529</v>
+        <v>2.80633148303906</v>
       </c>
       <c r="D24">
-        <v>0.5822855840293357</v>
+        <v>0.5821959026388583</v>
       </c>
       <c r="E24">
-        <v>0.9262586986980637</v>
+        <v>0.9261072363762111</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.238645489667761</v>
+        <v>1.407794185769234</v>
       </c>
       <c r="H24">
-        <v>2.504218415710227</v>
+        <v>2.820181234438508</v>
       </c>
       <c r="I24">
-        <v>0.336905932648996</v>
+        <v>2.496153710590448</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.336849616999821</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1280,42 +1349,48 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.557432060667168</v>
+        <v>4.556596729869852</v>
       </c>
       <c r="C25">
-        <v>2.219277133650337</v>
+        <v>2.217104466888145</v>
       </c>
       <c r="D25">
-        <v>0.4613388281926802</v>
+        <v>0.4612903038674006</v>
       </c>
       <c r="E25">
-        <v>0.7275356402503945</v>
+        <v>0.7274540891756232</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.414389878999145</v>
+        <v>1.125601005928559</v>
       </c>
       <c r="H25">
-        <v>2.046896095427002</v>
+        <v>2.281250868716143</v>
       </c>
       <c r="I25">
-        <v>0.2637767349961493</v>
+        <v>2.04042407866865</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.263746512386092</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,37 +409,43 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.739616556944895</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.811398390377008</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.378552391619678</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5923409581098085</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9353331843948922</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.919252698780312</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.736422208545321</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2141722557759209</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,37 +456,43 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.206337924204718</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.548381082946889</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3252039852873168</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5055256935212853</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.8141062687963228</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1.689399552419275</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.544505357231387</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.182373909495535</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,37 +503,43 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.886447165472248</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.391304250305154</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2934773539810891</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4539915191481256</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.7426362989353379</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1.554258783263023</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.432156437986905</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1635159577137308</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -532,37 +550,43 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.757665591880595</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1.328217897304341</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2807673041553471</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4333634641994308</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.7141489770184961</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1.500483617993126</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.387565099695294</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.155970809350908</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -573,37 +597,43 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.736368125318734</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.317793239623995</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2786689503740263</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4299587468957071</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.7094542649576709</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1.491626898738247</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.380227652012593</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1547256298568556</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -614,37 +644,43 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.884704382883797</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1.390449934947299</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2933051050962945</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4537119027079015</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.7422496616006384</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1.553528564946532</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.431550470281081</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1634136700815425</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -655,37 +691,43 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.553969466357785</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1.719672632068864</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3599183544230442</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.561992516562853</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.8928494510937526</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1.83862061602953</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.668988807071386</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2030517965429226</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -696,37 +738,43 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.943402772687193</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2.41034566080458</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.500856598250806</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.7922952526581923</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.217444440000094</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>2.456420369423967</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2.188177894264328</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2875780766014486</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -737,37 +785,43 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.040456699555421</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>2.962453222364559</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.6143489303148613</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.9792050844898341</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.483567457709484</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>2.96521648119554</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.619334913705643</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3564365788025583</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -778,37 +832,43 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.564707421562048</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>3.228413714570365</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.6692180207321599</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1.070098163881738</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.613515747251483</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>3.214211880140937</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.831275582475612</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3900148093426665</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -819,37 +879,43 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.767793140909703</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>3.331815355336573</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.6905798884816079</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1.10558465271663</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.664316955880707</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>3.311636396662607</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2.91435169609673</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4031417754297095</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -860,37 +926,43 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.723834476591264</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>3.309415922015148</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.6859510394669428</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1.097890326898508</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.653299297837606</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>3.290503387730723</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2.896324207986282</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4002946905343663</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -901,37 +973,43 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.58131771085084</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>3.236863032484393</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.6709629829971959</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1.07299477527377</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.617661187566114</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>3.222160149556146</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.838050190677009</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3910859373767224</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -942,37 +1020,43 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.494648296880882</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>3.192791422712958</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.6618624528895509</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1.057892162610955</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.596049906619072</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>3.180727078379277</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.802741298644364</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3855019120338028</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -983,37 +1067,43 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.006777907485798</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>2.945414664700536</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.6108377643929543</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.9734008938715561</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.475279041700645</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>2.949346064182947</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2.605845829847368</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3542944885093888</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1024,37 +1114,43 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.714538540329727</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>2.797804918678082</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.580441147292504</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.9232128180035915</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.403667152856428</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>2.812285330203849</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2.489453592261881</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3357825060115687</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1065,37 +1161,43 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.548753961808472</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>2.714256703862077</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5632543451717709</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.8948819597799371</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.363291773628163</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>2.735058566531563</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2.423956211837023</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3253407135076074</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1106,37 +1208,43 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.492992767432042</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>2.686186228512781</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.5574829741990186</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.8853757574322856</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.34975276510238</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>2.709170569902113</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2.402014120399116</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3218383404661012</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1147,37 +1255,43 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.745403397204711</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>2.813374582528354</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.5836454652920509</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.9284985109309076</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.41120408897666</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>2.826705396474694</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2.501690306977395</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3377312754331285</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1188,37 +1302,43 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.623045808659583</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>3.258095437939801</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.6753483933645441</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>1.080276157886388</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.628082836234768</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>3.242143462276402</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2.855085141487137</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3937787847094825</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1229,37 +1349,43 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.22386000317681</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>3.564789605329509</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.7387651214412188</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>1.185843615516859</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.77931790455429</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>3.532339338853092</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3.102841962089897</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4328678017254006</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1270,37 +1396,43 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.900325859025997</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>3.399407851414139</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.7045522081596687</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>1.128826658313798</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.69760611500655</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>3.375500874629694</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2.968853973011548</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4117447315767748</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1311,37 +1443,43 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.731442524205761</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>2.80633148303906</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.5821959026388583</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0.9261072363762111</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.407794185769234</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>2.820181234438508</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2.496153710590448</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.336849616999821</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1352,37 +1490,43 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.556596729869852</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>2.217104466888145</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4612903038674006</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.7274540891756232</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.125601005928559</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>2.281250868716143</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2.04042407866865</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.263746512386092</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,6 +1535,12 @@
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_0/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>7.222081567463704</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.286181539328595</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1128688173473122</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.02162784082969704</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0008749282614562448</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.08873925237243441</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3875113232294609</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.205623934201981</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.095388282605086</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>6.471820055526848</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.122226470096223</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1093905931744601</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.02025783104225098</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.000890867001605922</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0757047507538573</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3605806752884462</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.088774767342926</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>4.876949364761686</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>6.030207395164382</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.02525862097599</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.107447655087654</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.01943705450541255</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0009008200736455609</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.06794109642046919</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3449423899081694</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.020146238639782</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>4.747592364414686</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>5.854426488008073</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.9865406693723457</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.1067004743980462</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.01910656960612034</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0009049241087453692</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.06482744100539861</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3387708843618213</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.9928666009296947</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>4.695926556622851</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>5.825474265720857</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.9801561567335284</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1065789941851776</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.01905190319724692</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0009056086508001577</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.06431317477048282</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3377576092253491</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.9883757349853681</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>4.687406754826867</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>6.027820578900275</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1.024733393027304</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1074374026008442</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.01943258272174031</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0009008752198618363</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.06789891418817007</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3448583740644438</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.019775673096184</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>4.746891522130369</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>6.959043663132093</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1.228795505692233</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.1116270334265366</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.02115048185304857</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0008803933313026508</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.08418867877339409</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3780236854572649</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.164624910060077</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.018985023023419</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>8.968961181631812</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1.665479000056962</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.1215784777115374</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.02474334755720342</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.000841222075544934</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1185781744337078</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4514833435927699</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.478582439412463</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.598331924092861</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>10.61345140158483</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2.02083495999517</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.1302995002724572</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.02762771795115881</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0008124904514810283</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.146269832270832</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.5128150984161124</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.736320411963774</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.065373223319398</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>11.41444024606278</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2.193623713036857</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.1346760305986692</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.02902571446770175</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007992664225058969</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.159671759711955</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.5429704264658852</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.862055346125317</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.29076378250835</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>11.72716206838652</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2.261055429276098</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.1364033916685372</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.02957111482991515</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007942188395801122</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1648930852032109</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.5547855615184574</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.91117397954622</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.378400101951058</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>11.65935994268909</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2.246436356052186</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.1360280485827374</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.02945287181853296</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007953080353586093</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1637614986744964</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.5522220107323363</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.900523117615876</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.359416452416212</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>11.4399676376047</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2.199128614626545</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.1348166632484649</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.0290702394570328</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007988520734300679</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1600981854316572</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.5439340532806369</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.866064300761408</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.297925043987448</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>11.30686938861675</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2.170425356560258</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.134084159062013</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.02883807665654992</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0008010170941469888</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1578743959708362</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.5389114416859115</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.845163029303791</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.26057190142069</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>10.56231317679374</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2.009798767850555</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.1300226174620818</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.02753837486812394</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.000813350152258983</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1454126214165399</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.5108954906384326</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.728296936795232</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.050937786750183</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>10.12024811275103</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1.914365765946059</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.127642989770294</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.02676536023612108</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0008208653092453055</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.137993317208938</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.4943319592861002</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.658959257484284</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.925918798831219</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>9.870833784004162</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1.860494521901558</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.1263120099494657</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.02632855944352563</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0008251746272750293</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1337994750197851</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.4850121602655548</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.619856513387745</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.855197718235189</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>9.787171467935423</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1.842419104352814</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.1258675419590531</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.02618191235610823</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0008266318960571157</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1323913321925545</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.4818902975681993</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.606743109000732</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.831445167059769</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>10.16679312208441</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1.924416700266477</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.1278923286832381</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.02684681648786125</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.000820066789337323</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1387753058150025</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4960732766638927</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.66625796043428</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.939101713250864</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>11.50413662155199</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>2.212966059131475</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.1351704717015991</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.02918215916307787</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007978123515087321</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1611699351472637</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.5463570188037181</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.876142197910553</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.315920599897026</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>12.4341839053219</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>2.413476783210228</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.1403429608944577</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.03080425940135534</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007830231981634738</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1766794406891563</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5815760595217228</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.022278962805828</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.575798635606702</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>11.93195263645998</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>2.305208317345375</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.1375397767027522</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.02992825417936551</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007909459727638635</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1683094815249433</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.5625346762945327</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.943348273326706</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.43568156909032</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>10.14573550493458</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1.919869604022608</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.1277794878101446</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.02680996665754343</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0008204278337255877</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1384215478985951</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4952854005708076</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.662955868813938</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.933138153901609</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>8.400443842565664</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1.542314642080669</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.1186682733532365</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.02373760395659819</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0008517638163674703</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1089277735621081</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4305049796820839</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.389637239700249</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.435461877874047</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_0/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.222081567463704</v>
+        <v>8.684023833688684</v>
       </c>
       <c r="C2">
-        <v>1.286181539328595</v>
+        <v>0.9652823463268305</v>
       </c>
       <c r="D2">
-        <v>0.1128688173473122</v>
+        <v>0.2857124914840554</v>
       </c>
       <c r="E2">
-        <v>0.02162784082969704</v>
+        <v>0.03637896011827024</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008749282614562448</v>
+        <v>0.002840580847411919</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08873925237243441</v>
+        <v>0.02730041464540989</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3875113232294609</v>
+        <v>0.7165019072303807</v>
       </c>
       <c r="M2">
-        <v>1.205623934201981</v>
+        <v>1.61067766300998</v>
       </c>
       <c r="N2">
-        <v>5.095388282605086</v>
+        <v>6.210132110822883</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.471820055526848</v>
+        <v>8.568314884328572</v>
       </c>
       <c r="C3">
-        <v>1.122226470096223</v>
+        <v>0.9328352151426316</v>
       </c>
       <c r="D3">
-        <v>0.1093905931744601</v>
+        <v>0.2865386693235905</v>
       </c>
       <c r="E3">
-        <v>0.02025783104225098</v>
+        <v>0.03594057371530113</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.000890867001605922</v>
+        <v>0.002849739966127345</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0757047507538573</v>
+        <v>0.02399673562509719</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3605806752884462</v>
+        <v>0.7150013713199428</v>
       </c>
       <c r="M3">
-        <v>1.088774767342926</v>
+        <v>1.594528402402908</v>
       </c>
       <c r="N3">
-        <v>4.876949364761686</v>
+        <v>6.135725961313085</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.030207395164382</v>
+        <v>8.502350826202075</v>
       </c>
       <c r="C4">
-        <v>1.02525862097599</v>
+        <v>0.9135852595194365</v>
       </c>
       <c r="D4">
-        <v>0.107447655087654</v>
+        <v>0.2871470892178607</v>
       </c>
       <c r="E4">
-        <v>0.01943705450541255</v>
+        <v>0.03566638692483348</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0009008200736455609</v>
+        <v>0.002855650285851822</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06794109642046919</v>
+        <v>0.02197906809903571</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3449423899081694</v>
+        <v>0.7144141970595967</v>
       </c>
       <c r="M4">
-        <v>1.020146238639782</v>
+        <v>1.585511455756546</v>
       </c>
       <c r="N4">
-        <v>4.747592364414686</v>
+        <v>6.090505686532396</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.854426488008073</v>
+        <v>8.476740659082566</v>
       </c>
       <c r="C5">
-        <v>0.9865406693723457</v>
+        <v>0.905908033960543</v>
       </c>
       <c r="D5">
-        <v>0.1067004743980462</v>
+        <v>0.2874204609057358</v>
       </c>
       <c r="E5">
-        <v>0.01910656960612034</v>
+        <v>0.03555337014184623</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0009049241087453692</v>
+        <v>0.002858131153120567</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06482744100539861</v>
+        <v>0.02115939871460171</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3387708843618213</v>
+        <v>0.7142587475192244</v>
       </c>
       <c r="M5">
-        <v>0.9928666009296947</v>
+        <v>1.582061910512728</v>
       </c>
       <c r="N5">
-        <v>4.695926556622851</v>
+        <v>6.072192350085999</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.825474265720857</v>
+        <v>8.47256465463829</v>
       </c>
       <c r="C6">
-        <v>0.9801561567335284</v>
+        <v>0.9046432862949132</v>
       </c>
       <c r="D6">
-        <v>0.1065789941851776</v>
+        <v>0.287467390419387</v>
       </c>
       <c r="E6">
-        <v>0.01905190319724692</v>
+        <v>0.03553452563041315</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0009056086508001577</v>
+        <v>0.002858547478595263</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06431317477048282</v>
+        <v>0.02102344210828022</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3377576092253491</v>
+        <v>0.7142379926539348</v>
       </c>
       <c r="M6">
-        <v>0.9883757349853681</v>
+        <v>1.58150267098916</v>
       </c>
       <c r="N6">
-        <v>4.687406754826867</v>
+        <v>6.069158258115124</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.027820578900275</v>
+        <v>8.502000302654153</v>
       </c>
       <c r="C7">
-        <v>1.024733393027304</v>
+        <v>0.9134810468719365</v>
       </c>
       <c r="D7">
-        <v>0.1074374026008442</v>
+        <v>0.2871506730113111</v>
       </c>
       <c r="E7">
-        <v>0.01943258272174031</v>
+        <v>0.03566486796675505</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0009008752198618363</v>
+        <v>0.002855683450336078</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06789891418817007</v>
+        <v>0.02196800366395735</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3448583740644438</v>
+        <v>0.714411761446911</v>
       </c>
       <c r="M7">
-        <v>1.019775673096184</v>
+        <v>1.585464024617323</v>
       </c>
       <c r="N7">
-        <v>4.746891522130369</v>
+        <v>6.090258247301051</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.959043663132093</v>
+        <v>8.643068286081075</v>
       </c>
       <c r="C8">
-        <v>1.228795505692233</v>
+        <v>0.9539538040020261</v>
       </c>
       <c r="D8">
-        <v>0.1116270334265366</v>
+        <v>0.2859763658812255</v>
       </c>
       <c r="E8">
-        <v>0.02115048185304857</v>
+        <v>0.03622883199783899</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008803933313026508</v>
+        <v>0.002843679612476921</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08418867877339409</v>
+        <v>0.02615895934365398</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3780236854572649</v>
+        <v>0.7159150431171781</v>
       </c>
       <c r="M8">
-        <v>1.164624910060077</v>
+        <v>1.604922198631236</v>
       </c>
       <c r="N8">
-        <v>5.018985023023419</v>
+        <v>6.184378598641558</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.968961181631812</v>
+        <v>8.960377024296463</v>
       </c>
       <c r="C9">
-        <v>1.665479000056962</v>
+        <v>1.038749495267325</v>
       </c>
       <c r="D9">
-        <v>0.1215784777115374</v>
+        <v>0.2844762193084307</v>
       </c>
       <c r="E9">
-        <v>0.02474334755720342</v>
+        <v>0.03729600832129609</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.000841222075544934</v>
+        <v>0.00282240030337142</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1185781744337078</v>
+        <v>0.03447130227318951</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4514833435927699</v>
+        <v>0.7215247144158354</v>
       </c>
       <c r="M9">
-        <v>1.478582439412463</v>
+        <v>1.650264339412345</v>
       </c>
       <c r="N9">
-        <v>5.598331924092861</v>
+        <v>6.372774777782098</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.61345140158483</v>
+        <v>9.218838387146775</v>
       </c>
       <c r="C10">
-        <v>2.02083495999517</v>
+        <v>1.104494173377134</v>
       </c>
       <c r="D10">
-        <v>0.1302995002724572</v>
+        <v>0.2838639403723846</v>
       </c>
       <c r="E10">
-        <v>0.02762771795115881</v>
+        <v>0.03805794092482628</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008124904514810283</v>
+        <v>0.002808124964157705</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.146269832270832</v>
+        <v>0.04064761149138008</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5128150984161124</v>
+        <v>0.7272851025985148</v>
       </c>
       <c r="M10">
-        <v>1.736320411963774</v>
+        <v>1.688038890224306</v>
       </c>
       <c r="N10">
-        <v>6.065373223319398</v>
+        <v>6.513722246923294</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.41444024606278</v>
+        <v>9.342043240716407</v>
       </c>
       <c r="C11">
-        <v>2.193623713036857</v>
+        <v>1.135181895815435</v>
       </c>
       <c r="D11">
-        <v>0.1346760305986692</v>
+        <v>0.2836919495005858</v>
       </c>
       <c r="E11">
-        <v>0.02902571446770175</v>
+        <v>0.03840009330863303</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007992664225058969</v>
+        <v>0.002801921587992334</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.159671759711955</v>
+        <v>0.04347508796737998</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5429704264658852</v>
+        <v>0.7302653539321255</v>
       </c>
       <c r="M11">
-        <v>1.862055346125317</v>
+        <v>1.70621104569652</v>
       </c>
       <c r="N11">
-        <v>6.29076378250835</v>
+        <v>6.578437523767093</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.72716206838652</v>
+        <v>9.389516900625949</v>
       </c>
       <c r="C12">
-        <v>2.261055429276098</v>
+        <v>1.146917143254541</v>
       </c>
       <c r="D12">
-        <v>0.1364033916685372</v>
+        <v>0.2836421554894883</v>
       </c>
       <c r="E12">
-        <v>0.02957111482991515</v>
+        <v>0.03852904345266772</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007942188395801122</v>
+        <v>0.002799613987961212</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1648930852032109</v>
+        <v>0.04454855726537232</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5547855615184574</v>
+        <v>0.7314459416278396</v>
       </c>
       <c r="M12">
-        <v>1.91117397954622</v>
+        <v>1.713235962676208</v>
       </c>
       <c r="N12">
-        <v>6.378400101951058</v>
+        <v>6.603032846064821</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.65935994268909</v>
+        <v>9.379256039885263</v>
       </c>
       <c r="C13">
-        <v>2.246436356052186</v>
+        <v>1.144384619420748</v>
       </c>
       <c r="D13">
-        <v>0.1360280485827374</v>
+        <v>0.2836521972167816</v>
       </c>
       <c r="E13">
-        <v>0.02945287181853296</v>
+        <v>0.03850129870500751</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007953080353586093</v>
+        <v>0.002800109130550492</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1637614986744964</v>
+        <v>0.04431724023270078</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5522220107323363</v>
+        <v>0.7311893621030379</v>
       </c>
       <c r="M13">
-        <v>1.900523117615876</v>
+        <v>1.711716615454961</v>
       </c>
       <c r="N13">
-        <v>6.359416452416212</v>
+        <v>6.597731792407217</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.4399676376047</v>
+        <v>9.345932466809245</v>
       </c>
       <c r="C14">
-        <v>2.199128614626545</v>
+        <v>1.13614505413841</v>
       </c>
       <c r="D14">
-        <v>0.1348166632484649</v>
+        <v>0.2836875454826071</v>
       </c>
       <c r="E14">
-        <v>0.0290702394570328</v>
+        <v>0.03841071430582055</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007988520734300679</v>
+        <v>0.002801730910567093</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1600981854316572</v>
+        <v>0.04356334635268411</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5439340532806369</v>
+        <v>0.7303614371082858</v>
       </c>
       <c r="M14">
-        <v>1.866064300761408</v>
+        <v>1.706786105403566</v>
       </c>
       <c r="N14">
-        <v>6.297925043987448</v>
+        <v>6.580459192939884</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.30686938861675</v>
+        <v>9.325627705542502</v>
       </c>
       <c r="C15">
-        <v>2.170425356560258</v>
+        <v>1.131113059266056</v>
       </c>
       <c r="D15">
-        <v>0.134084159062013</v>
+        <v>0.2837111948989559</v>
       </c>
       <c r="E15">
-        <v>0.02883807665654992</v>
+        <v>0.03835514933519057</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008010170941469888</v>
+        <v>0.002802729691346144</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1578743959708362</v>
+        <v>0.04310193070914892</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5389114416859115</v>
+        <v>0.7298610939391068</v>
       </c>
       <c r="M15">
-        <v>1.845163029303791</v>
+        <v>1.703784757903847</v>
       </c>
       <c r="N15">
-        <v>6.26057190142069</v>
+        <v>6.569890917739201</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.56231317679374</v>
+        <v>9.210900714776471</v>
       </c>
       <c r="C16">
-        <v>2.009798767850555</v>
+        <v>1.102504551295681</v>
       </c>
       <c r="D16">
-        <v>0.1300226174620818</v>
+        <v>0.2838773254412743</v>
       </c>
       <c r="E16">
-        <v>0.02753837486812394</v>
+        <v>0.03803549295332331</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.000813350152258983</v>
+        <v>0.002808536190636383</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1454126214165399</v>
+        <v>0.0404632052519176</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5108954906384326</v>
+        <v>0.7270976011431713</v>
       </c>
       <c r="M16">
-        <v>1.728296936795232</v>
+        <v>1.686871303023182</v>
       </c>
       <c r="N16">
-        <v>6.050937786750183</v>
+        <v>6.509505241582531</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.12024811275103</v>
+        <v>9.141967681843425</v>
       </c>
       <c r="C17">
-        <v>1.914365765946059</v>
+        <v>1.085155580707465</v>
       </c>
       <c r="D17">
-        <v>0.127642989770294</v>
+        <v>0.2840065381418952</v>
       </c>
       <c r="E17">
-        <v>0.02676536023612108</v>
+        <v>0.03783827085538327</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008208653092453055</v>
+        <v>0.002812172495196991</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.137993317208938</v>
+        <v>0.03884914317023913</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4943319592861002</v>
+        <v>0.7254946487154257</v>
       </c>
       <c r="M17">
-        <v>1.658959257484284</v>
+        <v>1.676749558425001</v>
       </c>
       <c r="N17">
-        <v>5.925918798831219</v>
+        <v>6.472615840411038</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.870833784004162</v>
+        <v>9.102848533973088</v>
       </c>
       <c r="C18">
-        <v>1.860494521901558</v>
+        <v>1.075250201410654</v>
       </c>
       <c r="D18">
-        <v>0.1263120099494657</v>
+        <v>0.2840908846751518</v>
       </c>
       <c r="E18">
-        <v>0.02632855944352563</v>
+        <v>0.03772441311077657</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008251746272750293</v>
+        <v>0.002814291366888384</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1337994750197851</v>
+        <v>0.03792244456408866</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4850121602655548</v>
+        <v>0.7246065229647058</v>
       </c>
       <c r="M18">
-        <v>1.619856513387745</v>
+        <v>1.671020737959367</v>
       </c>
       <c r="N18">
-        <v>5.855197718235189</v>
+        <v>6.451454088378739</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.787171467935423</v>
+        <v>9.089694098109476</v>
       </c>
       <c r="C19">
-        <v>1.842419104352814</v>
+        <v>1.071908928981259</v>
       </c>
       <c r="D19">
-        <v>0.1258675419590531</v>
+        <v>0.2841211646495196</v>
       </c>
       <c r="E19">
-        <v>0.02618191235610823</v>
+        <v>0.03768578980562509</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008266318960571157</v>
+        <v>0.002815013489726334</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1323913321925545</v>
+        <v>0.037608960675378</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4818902975681993</v>
+        <v>0.7243116240176306</v>
       </c>
       <c r="M19">
-        <v>1.606743109000732</v>
+        <v>1.669096978394364</v>
       </c>
       <c r="N19">
-        <v>5.831445167059769</v>
+        <v>6.444298616096319</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.16679312208441</v>
+        <v>9.149250874065388</v>
       </c>
       <c r="C20">
-        <v>1.924416700266477</v>
+        <v>1.086994806641769</v>
       </c>
       <c r="D20">
-        <v>0.1278923286832381</v>
+        <v>0.2839917453911198</v>
       </c>
       <c r="E20">
-        <v>0.02684681648786125</v>
+        <v>0.03785930885684863</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.000820066789337323</v>
+        <v>0.002811782574360697</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1387753058150025</v>
+        <v>0.03902078885201377</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4960732766638927</v>
+        <v>0.7256617803274708</v>
       </c>
       <c r="M20">
-        <v>1.66625796043428</v>
+        <v>1.677817406585319</v>
       </c>
       <c r="N20">
-        <v>5.939101713250864</v>
+        <v>6.476536956137977</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.50413662155199</v>
+        <v>9.355698115596965</v>
       </c>
       <c r="C21">
-        <v>2.212966059131475</v>
+        <v>1.138562088876824</v>
       </c>
       <c r="D21">
-        <v>0.1351704717015991</v>
+        <v>0.283676746514125</v>
       </c>
       <c r="E21">
-        <v>0.02918215916307787</v>
+        <v>0.038437337643483</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007978123515087321</v>
+        <v>0.002801253431004896</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1611699351472637</v>
+        <v>0.04378470659714395</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5463570188037181</v>
+        <v>0.7306032042697694</v>
       </c>
       <c r="M21">
-        <v>1.876142197910553</v>
+        <v>1.708230409374949</v>
       </c>
       <c r="N21">
-        <v>6.315920599897026</v>
+        <v>6.585530132101553</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.4341839053219</v>
+        <v>9.495399526648725</v>
       </c>
       <c r="C22">
-        <v>2.413476783210228</v>
+        <v>1.172932631749802</v>
       </c>
       <c r="D22">
-        <v>0.1403429608944577</v>
+        <v>0.2835602704982421</v>
       </c>
       <c r="E22">
-        <v>0.03080425940135534</v>
+        <v>0.03881153699003193</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007830231981634738</v>
+        <v>0.00279461368941877</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1766794406891563</v>
+        <v>0.04691441645825023</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5815760595217228</v>
+        <v>0.7341361313258119</v>
       </c>
       <c r="M22">
-        <v>2.022278962805828</v>
+        <v>1.728944268102708</v>
       </c>
       <c r="N22">
-        <v>6.575798635606702</v>
+        <v>6.657284021989938</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.93195263645998</v>
+        <v>9.420398134226161</v>
       </c>
       <c r="C23">
-        <v>2.305208317345375</v>
+        <v>1.154526500056875</v>
       </c>
       <c r="D23">
-        <v>0.1375397767027522</v>
+        <v>0.2836142507751021</v>
       </c>
       <c r="E23">
-        <v>0.02992825417936551</v>
+        <v>0.03861213856107604</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007909459727638635</v>
+        <v>0.002798135430259281</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1683094815249433</v>
+        <v>0.04524248069606074</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5625346762945327</v>
+        <v>0.7322226797881086</v>
       </c>
       <c r="M23">
-        <v>1.943348273326706</v>
+        <v>1.717811814046797</v>
       </c>
       <c r="N23">
-        <v>6.43568156909032</v>
+        <v>6.618938944186937</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.14573550493458</v>
+        <v>9.145956550742994</v>
       </c>
       <c r="C24">
-        <v>1.919869604022608</v>
+        <v>1.086163078550896</v>
       </c>
       <c r="D24">
-        <v>0.1277794878101446</v>
+        <v>0.2839984018584474</v>
       </c>
       <c r="E24">
-        <v>0.02680996665754343</v>
+        <v>0.03784979904883912</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008204278337255877</v>
+        <v>0.002811958769362612</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1384215478985951</v>
+        <v>0.03894318396945806</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4952854005708076</v>
+        <v>0.7255861160111294</v>
       </c>
       <c r="M24">
-        <v>1.662955868813938</v>
+        <v>1.677334351256107</v>
       </c>
       <c r="N24">
-        <v>5.933138153901609</v>
+        <v>6.474764075252722</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.400443842565664</v>
+        <v>8.870127399907233</v>
       </c>
       <c r="C25">
-        <v>1.542314642080669</v>
+        <v>1.01521499275708</v>
       </c>
       <c r="D25">
-        <v>0.1186682733532365</v>
+        <v>0.2847960683164317</v>
       </c>
       <c r="E25">
-        <v>0.02373760395659819</v>
+        <v>0.03701130380776885</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008517638163674703</v>
+        <v>0.002827916946080832</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1089277735621081</v>
+        <v>0.03221131604166061</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4305049796820839</v>
+        <v>0.7197205487892546</v>
       </c>
       <c r="M25">
-        <v>1.389637239700249</v>
+        <v>1.637220624381726</v>
       </c>
       <c r="N25">
-        <v>5.435461877874047</v>
+        <v>6.321378459357845</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_0/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.684023833688684</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9652823463268305</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2857124914840554</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03637896011827024</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002840580847411919</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02730041464540989</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.7165019072303807</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.61067766300998</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>6.210132110822883</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.568314884328572</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.9328352151426316</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2865386693235905</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03594057371530113</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002849739966127345</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02399673562509719</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7150013713199428</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1.594528402402908</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>6.135725961313085</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.502350826202075</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.9135852595194365</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2871470892178607</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03566638692483348</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002855650285851822</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02197906809903571</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.7144141970595967</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1.585511455756546</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>6.090505686532396</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.476740659082566</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.905908033960543</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2874204609057358</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03555337014184623</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002858131153120567</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02115939871460171</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7142587475192244</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>1.582061910512728</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>6.072192350085999</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.47256465463829</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.9046432862949132</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.287467390419387</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03553452563041315</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002858547478595263</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02102344210828022</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7142379926539348</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1.58150267098916</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>6.069158258115124</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.502000302654153</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.9134810468719365</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2871506730113111</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03566486796675505</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002855683450336078</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02196800366395735</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.714411761446911</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>1.585464024617323</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>6.090258247301051</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.643068286081075</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.9539538040020261</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2859763658812255</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03622883199783899</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002843679612476921</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02615895934365398</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.7159150431171781</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>1.604922198631236</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>6.184378598641558</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.960377024296463</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1.038749495267325</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2844762193084307</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03729600832129609</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.00282240030337142</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03447130227318951</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.7215247144158354</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1.650264339412345</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>6.372774777782098</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.218838387146775</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1.104494173377134</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2838639403723846</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03805794092482628</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002808124964157705</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04064761149138008</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.7272851025985148</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.688038890224306</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>6.513722246923294</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.342043240716407</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1.135181895815435</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2836919495005858</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03840009330863303</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002801921587992334</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04347508796737998</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.7302653539321255</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.70621104569652</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>6.578437523767093</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.389516900625949</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1.146917143254541</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2836421554894883</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03852904345266772</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002799613987961212</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04454855726537232</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.7314459416278396</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.713235962676208</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>6.603032846064821</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.379256039885263</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>1.144384619420748</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2836521972167816</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03850129870500751</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002800109130550492</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04431724023270078</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.7311893621030379</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.711716615454961</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>6.597731792407217</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.345932466809245</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>1.13614505413841</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2836875454826071</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03841071430582055</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002801730910567093</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04356334635268411</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.7303614371082858</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.706786105403566</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>6.580459192939884</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.325627705542502</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1.131113059266056</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2837111948989559</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03835514933519057</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002802729691346144</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.04310193070914892</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.7298610939391068</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.703784757903847</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>6.569890917739201</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.210900714776471</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>1.102504551295681</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2838773254412743</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03803549295332331</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002808536190636383</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0404632052519176</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.7270976011431713</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.686871303023182</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>6.509505241582531</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.141967681843425</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>1.085155580707465</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2840065381418952</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03783827085538327</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002812172495196991</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03884914317023913</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.7254946487154257</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.676749558425001</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>6.472615840411038</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.102848533973088</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>1.075250201410654</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2840908846751518</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03772441311077657</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002814291366888384</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03792244456408866</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.7246065229647058</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.671020737959367</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>6.451454088378739</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.089694098109476</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>1.071908928981259</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2841211646495196</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03768578980562509</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002815013489726334</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.037608960675378</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.7243116240176306</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.669096978394364</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>6.444298616096319</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.149250874065388</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>1.086994806641769</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2839917453911198</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03785930885684863</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002811782574360697</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.03902078885201377</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.7256617803274708</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.677817406585319</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>6.476536956137977</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.355698115596965</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>1.138562088876824</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.283676746514125</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.038437337643483</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002801253431004896</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04378470659714395</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.7306032042697694</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.708230409374949</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>6.585530132101553</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.495399526648725</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>1.172932631749802</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2835602704982421</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03881153699003193</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.00279461368941877</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04691441645825023</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7341361313258119</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.728944268102708</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>6.657284021989938</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.420398134226161</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>1.154526500056875</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2836142507751021</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03861213856107604</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002798135430259281</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04524248069606074</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.7322226797881086</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.717811814046797</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>6.618938944186937</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.145956550742994</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>1.086163078550896</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2839984018584474</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03784979904883912</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002811958769362612</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03894318396945806</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.7255861160111294</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.677334351256107</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>6.474764075252722</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.870127399907233</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>1.01521499275708</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2847960683164317</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03701130380776885</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002827916946080832</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03221131604166061</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.7197205487892546</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>1.637220624381726</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>6.321378459357845</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -462,8 +468,14 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -509,8 +521,14 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -556,8 +574,14 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -603,8 +627,14 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -650,8 +680,14 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -697,8 +733,14 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -744,8 +786,14 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -791,8 +839,14 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -838,8 +892,14 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -885,8 +945,14 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -932,8 +998,14 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -979,8 +1051,14 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1026,8 +1104,14 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1073,8 +1157,14 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1120,8 +1210,14 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1167,8 +1263,14 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1214,8 +1316,14 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1261,8 +1369,14 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1308,8 +1422,14 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1355,8 +1475,14 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1402,8 +1528,14 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1449,8 +1581,14 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1496,8 +1634,14 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1541,6 +1685,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_0/res_line/pl_mw.xlsx
@@ -427,43 +427,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.019560480508034</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.0988196443423135</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.2624576908204688</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.05187555609387928</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.97605817265611</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.03903624643224468</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.04393714134228421</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.247987806923078</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.397763667988173</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.006697880134081124</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9795494865897183</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.289870420918021</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -480,43 +480,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.8906574500596207</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.0851315952967866</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.2394275730793112</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.04689625689420573</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.855377554520629</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.04618750356275569</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.05143057217498237</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.194228129110627</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.329405694937861</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.005322061343144835</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8534274683664762</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.257877858146955</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -533,43 +533,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.8116009230159875</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.07693631384265132</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.2253650162034546</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.04382771963841137</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.781123341972872</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.05104239677678635</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.05652892489529382</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.161196765532765</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.287122885881686</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.004530095394692513</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7763901643479301</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2383317787111139</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -586,43 +586,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.7791752266568892</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.07386977910043413</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.219592874211358</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.04254457259427369</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.748046501158015</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.05314974912087944</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.05884678308633973</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.146316008816385</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.267812610025366</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.004213940369966362</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7453580027533349</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2304979324464256</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -639,43 +639,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.7735178249322701</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.07363976506496783</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.2185632693356752</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.04229550541022675</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.739168691423203</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.05352598188765922</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.05939162629099037</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.142121580280445</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.262161190612204</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.004155650497574381</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.7405442275628218</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2293334867035099</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -692,43 +692,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.8104106996279654</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.07765010396414596</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.2250899262297423</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.04371251693229716</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.771433893103108</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.05112183062443876</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.05695641797652495</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.156291756488898</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.280195453945133</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.004507648804268349</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7768828724082368</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.238596202227356</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -745,43 +745,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.974071160797223</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.0950580927549538</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.2542375880127565</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.0500302039400129</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.922234270635414</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.04146226904991224</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.04688769843887286</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.223240417929929</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.365435148837513</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.006185735048243934</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.9371729010964032</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2793111412022</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -798,43 +798,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1.297550415745178</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.1297203584885267</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.3124770187156543</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.06253682356240731</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.233805396350135</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.02630545024371655</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0306782060475097</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.362977870481359</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.542268000037836</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.009997036171070395</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.253696404126146</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3594262978131582</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -851,43 +851,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1.534925101726657</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.1579947844239484</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.3504875061269388</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.06915165037922932</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.412929497189623</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.01835717248222934</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.02195841068489912</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.440781871228495</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.637382959246537</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.01288824336052752</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.490964544252876</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.4075250470464908</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -904,43 +904,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1.630754853995938</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.1812262296913474</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3225786485754014</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.05226683278615596</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.10021395355335</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.03644971511475603</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.02081608566721638</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.277608649308661</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.418065661597495</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.01583401871656065</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.610140417795549</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.3331601487281546</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -957,43 +957,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1.662317842839769</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.1941169695601985</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.2923140217097711</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.03976676069966345</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.831396025389807</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.07562512338829919</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.02079036124376632</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.139630903939917</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.237929451202859</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.02320501892799953</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.659300426538323</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2667329391099713</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1010,43 +1010,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1.644707258703193</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.2008303615755693</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.2583545491874588</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.02981324035754884</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.566880124885387</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1327921720938008</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.02211860506304042</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.00587534253637</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.067396903543511</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.03420349674204459</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.658329883759762</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2036029350684601</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1063,43 +1063,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1.609950696151969</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.2030406208723008</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.233246879369915</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.02444334824447836</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.385470729606368</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1835507496810038</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.02381013119278919</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.9149312810355639</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.9537068725780884</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.04418910458201708</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.635296617235582</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1623821604548752</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1116,43 +1116,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1.590754806045425</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.2025446657122814</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.2262145113859617</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.02329002882701392</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.337685409582505</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1967166499351407</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.02470993250408693</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.8914236181487496</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.9246912969512167</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.04667967322270883</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.61934083846819</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.152318874124532</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1169,43 +1169,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1.49169292713259</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.1890936720347298</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.2175238238366575</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.02276647948613242</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.314442846351795</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1872886705498331</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.02830906715229453</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.8846762915374029</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.9180770702666337</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.04288168168854867</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.517261799229345</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.146626677121283</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1222,43 +1222,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1.43430615032176</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.1776766988405285</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.2239431142444914</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.02488129793962024</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.390117961182767</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1513423833245184</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.03023309189470336</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.9265148797304477</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.9712900371430067</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.03424088035908923</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.451489119059005</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1631879230432745</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1275,43 +1275,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1.406516990963325</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.16610118781648</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.2448772559148011</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.03104869890994344</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.575481918509226</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.09881238028505379</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.03032546867242747</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.022795643215318</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.093965281765364</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.02295821363995998</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.408416756258333</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2043332946362995</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1328,43 +1328,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1.402806041493363</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.1571840009791714</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.276868936552205</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.04222768347101713</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.838830669532598</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.05217499521132396</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.02950229162490459</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.15704569578844</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.266913961232063</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.01424310826418207</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.388531952257665</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2687932866962086</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1381,43 +1381,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1.469905307656717</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.1529157594108597</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.3396272469695703</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.06700025803925769</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.335360766866415</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02035844807847287</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.02512394963686138</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.404909813218069</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.590661303758154</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.0120169150356304</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.431259643085696</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3955309811999115</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1434,43 +1434,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1.655106620347482</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.1731965150733146</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.3773230952719473</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.07606812427859211</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2.549686028217337</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0142787376719225</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01879261840063418</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.503389269096459</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.714861374597646</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.01484571285401226</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.612451716338171</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4507333198249626</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1487,43 +1487,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1.777069554081351</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.1863175085393607</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.399701737131366</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.08085694203276361</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2.678992966360198</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0111205253158366</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01497071609983891</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.562355295175593</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.789141420341068</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.01668550883539943</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.731155979977331</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.4805555395243459</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1540,43 +1540,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1.71290193884613</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.1783631711446247</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.3879788485590581</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.07841845591296703</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2.620831780339358</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.01272606183941283</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01656562990246968</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.536355810594642</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.757325542196085</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.01572240778218426</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.666659931012248</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4641643076096642</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1593,43 +1593,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1.469338602234302</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.1504237642820385</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.3435478237112903</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.06903299619714431</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.384463323332682</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.01998112904947025</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.02440535621826978</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.429814905056531</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.624608644555707</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.01223967399692638</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.425873617448843</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.403261959509436</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1646,43 +1646,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1.208417158463988</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.1214947581711527</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.2962681647707512</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.05897546263281228</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.132808821977591</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.03003066919260355</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.03521499996587441</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.316679071635917</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.48261728438996</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.008865643387788946</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.169198067739075</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3383097105300976</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.019560480508034</v>
+        <v>0.9833524959255442</v>
       </c>
       <c r="C2">
-        <v>0.0988196443423135</v>
+        <v>0.1320805188817076</v>
       </c>
       <c r="D2">
-        <v>0.2624576908204688</v>
+        <v>0.255767364598313</v>
       </c>
       <c r="E2">
-        <v>0.05187555609387928</v>
+        <v>0.04868252251895733</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.97605817265611</v>
+        <v>1.518738800408101</v>
       </c>
       <c r="H2">
-        <v>0.03903624643224468</v>
+        <v>0.0312471379089454</v>
       </c>
       <c r="I2">
-        <v>0.04393714134228421</v>
+        <v>0.03226916516435896</v>
       </c>
       <c r="J2">
-        <v>1.247987806923078</v>
+        <v>0.979330023891734</v>
       </c>
       <c r="K2">
-        <v>1.397763667988173</v>
+        <v>1.041344374723259</v>
       </c>
       <c r="L2">
-        <v>0.006697880134081124</v>
+        <v>0.3954764950378618</v>
       </c>
       <c r="M2">
-        <v>0.9795494865897183</v>
+        <v>0.3836191002345615</v>
       </c>
       <c r="N2">
-        <v>0.289870420918021</v>
+        <v>0.006721172681652732</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.028453870683023</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3206208319266324</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8906574500596207</v>
+        <v>0.8583588898005132</v>
       </c>
       <c r="C3">
-        <v>0.0851315952967866</v>
+        <v>0.1128340670644405</v>
       </c>
       <c r="D3">
-        <v>0.2394275730793112</v>
+        <v>0.2341296637580967</v>
       </c>
       <c r="E3">
-        <v>0.04689625689420573</v>
+        <v>0.0444314303772515</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.855377554520629</v>
+        <v>1.456370059149137</v>
       </c>
       <c r="H3">
-        <v>0.04618750356275569</v>
+        <v>0.03701332929972967</v>
       </c>
       <c r="I3">
-        <v>0.05143057217498237</v>
+        <v>0.03777640683264405</v>
       </c>
       <c r="J3">
-        <v>1.194228129110627</v>
+        <v>0.9438601051345472</v>
       </c>
       <c r="K3">
-        <v>1.329405694937861</v>
+        <v>1.009480825007287</v>
       </c>
       <c r="L3">
-        <v>0.005322061343144835</v>
+        <v>0.3901843665618259</v>
       </c>
       <c r="M3">
-        <v>0.8534274683664762</v>
+        <v>0.3671033564799977</v>
       </c>
       <c r="N3">
-        <v>0.257877858146955</v>
+        <v>0.005467089807673187</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8945125718786642</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2861690525011227</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8116009230159875</v>
+        <v>0.7815295158931974</v>
       </c>
       <c r="C4">
-        <v>0.07693631384265132</v>
+        <v>0.1013037531224938</v>
       </c>
       <c r="D4">
-        <v>0.2253650162034546</v>
+        <v>0.2209143617196645</v>
       </c>
       <c r="E4">
-        <v>0.04382771963841137</v>
+        <v>0.04180473359472003</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.781123341972872</v>
+        <v>1.418025689403251</v>
       </c>
       <c r="H4">
-        <v>0.05104239677678635</v>
+        <v>0.04093375633562357</v>
       </c>
       <c r="I4">
-        <v>0.05652892489529382</v>
+        <v>0.04154382639277454</v>
       </c>
       <c r="J4">
-        <v>1.161196765532765</v>
+        <v>0.9217060179607017</v>
       </c>
       <c r="K4">
-        <v>1.287122885881686</v>
+        <v>0.9895454264156172</v>
       </c>
       <c r="L4">
-        <v>0.004530095394692513</v>
+        <v>0.3865068139106569</v>
       </c>
       <c r="M4">
-        <v>0.7763901643479301</v>
+        <v>0.357655915430648</v>
       </c>
       <c r="N4">
-        <v>0.2383317787111139</v>
+        <v>0.004738183290051268</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8125754085949666</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2651312375936357</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7791752266568892</v>
+        <v>0.7499961673325686</v>
       </c>
       <c r="C5">
-        <v>0.07386977910043413</v>
+        <v>0.09691549604870886</v>
       </c>
       <c r="D5">
-        <v>0.219592874211358</v>
+        <v>0.215494389475424</v>
       </c>
       <c r="E5">
-        <v>0.04254457259427369</v>
+        <v>0.04070543427287454</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.748046501158015</v>
+        <v>1.40030818359952</v>
       </c>
       <c r="H5">
-        <v>0.05314974912087944</v>
+        <v>0.04263635292830426</v>
       </c>
       <c r="I5">
-        <v>0.05884678308633973</v>
+        <v>0.04329833602290911</v>
       </c>
       <c r="J5">
-        <v>1.146316008816385</v>
+        <v>0.9114899238412875</v>
       </c>
       <c r="K5">
-        <v>1.267812610025366</v>
+        <v>0.9798711067116983</v>
       </c>
       <c r="L5">
-        <v>0.004213940369966362</v>
+        <v>0.3842882425115377</v>
       </c>
       <c r="M5">
-        <v>0.7453580027533349</v>
+        <v>0.3535050531864314</v>
       </c>
       <c r="N5">
-        <v>0.2304979324464256</v>
+        <v>0.004447419445515077</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7794941510144611</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2566833697102027</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7735178249322701</v>
+        <v>0.7445160600689746</v>
       </c>
       <c r="C6">
-        <v>0.07363976506496783</v>
+        <v>0.09648921420770762</v>
       </c>
       <c r="D6">
-        <v>0.2185632693356752</v>
+        <v>0.2145335244855033</v>
       </c>
       <c r="E6">
-        <v>0.04229550541022675</v>
+        <v>0.04049287344432351</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.739168691423203</v>
+        <v>1.394835837175833</v>
       </c>
       <c r="H6">
-        <v>0.05352598188765922</v>
+        <v>0.04293975164067731</v>
       </c>
       <c r="I6">
-        <v>0.05939162629099037</v>
+        <v>0.04375688749483775</v>
       </c>
       <c r="J6">
-        <v>1.142121580280445</v>
+        <v>0.9084527698274769</v>
       </c>
       <c r="K6">
-        <v>1.262161190612204</v>
+        <v>0.9764821346933488</v>
       </c>
       <c r="L6">
-        <v>0.004155650497574381</v>
+        <v>0.3831670315852023</v>
       </c>
       <c r="M6">
-        <v>0.7405442275628218</v>
+        <v>0.3522468051154419</v>
       </c>
       <c r="N6">
-        <v>0.2293334867035099</v>
+        <v>0.004396103798862239</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7743021692655816</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2554038107017789</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8104106996279654</v>
+        <v>0.7807371647465686</v>
       </c>
       <c r="C7">
-        <v>0.07765010396414596</v>
+        <v>0.101684600100981</v>
       </c>
       <c r="D7">
-        <v>0.2250899262297423</v>
+        <v>0.2207275077933417</v>
       </c>
       <c r="E7">
-        <v>0.04371251693229716</v>
+        <v>0.0417326679439558</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.771433893103108</v>
+        <v>1.413396602976974</v>
       </c>
       <c r="H7">
-        <v>0.05112183062443876</v>
+        <v>0.04101770420608886</v>
       </c>
       <c r="I7">
-        <v>0.05695641797652495</v>
+        <v>0.04201134675515128</v>
       </c>
       <c r="J7">
-        <v>1.156291756488898</v>
+        <v>0.9088184700376587</v>
       </c>
       <c r="K7">
-        <v>1.280195453945133</v>
+        <v>0.9821647131822502</v>
       </c>
       <c r="L7">
-        <v>0.004507648804268349</v>
+        <v>0.3834764444859147</v>
       </c>
       <c r="M7">
-        <v>0.7768828724082368</v>
+        <v>0.3551893384918934</v>
       </c>
       <c r="N7">
-        <v>0.238596202227356</v>
+        <v>0.004721220543154825</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8125588632834706</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2651712887846287</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.974071160797223</v>
+        <v>0.9403591325955745</v>
       </c>
       <c r="C8">
-        <v>0.0950580927549538</v>
+        <v>0.1252030603480989</v>
       </c>
       <c r="D8">
-        <v>0.2542375880127565</v>
+        <v>0.2482542822037743</v>
       </c>
       <c r="E8">
-        <v>0.0500302039400129</v>
+        <v>0.04719379626230769</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.922234270635414</v>
+        <v>1.496640138998004</v>
       </c>
       <c r="H8">
-        <v>0.04146226904991224</v>
+        <v>0.03325982896684421</v>
       </c>
       <c r="I8">
-        <v>0.04688769843887286</v>
+        <v>0.03465904511601092</v>
       </c>
       <c r="J8">
-        <v>1.223240417929929</v>
+        <v>0.9325575423701764</v>
       </c>
       <c r="K8">
-        <v>1.365435148837513</v>
+        <v>1.01621872387188</v>
       </c>
       <c r="L8">
-        <v>0.006185735048243934</v>
+        <v>0.3881193358251949</v>
       </c>
       <c r="M8">
-        <v>0.9371729010964032</v>
+        <v>0.3727873725472151</v>
       </c>
       <c r="N8">
-        <v>0.2793111412022</v>
+        <v>0.006254485793450559</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9819774744231609</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3085617616737437</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.297550415745178</v>
+        <v>1.25316272743845</v>
       </c>
       <c r="C9">
-        <v>0.1297203584885267</v>
+        <v>0.1737201291910395</v>
       </c>
       <c r="D9">
-        <v>0.3124770187156543</v>
+        <v>0.3029823316472005</v>
       </c>
       <c r="E9">
-        <v>0.06253682356240731</v>
+        <v>0.05785124162566646</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.233805396350135</v>
+        <v>1.66301674334062</v>
       </c>
       <c r="H9">
-        <v>0.02630545024371655</v>
+        <v>0.02106499803436723</v>
       </c>
       <c r="I9">
-        <v>0.0306782060475097</v>
+        <v>0.02270990388754868</v>
       </c>
       <c r="J9">
-        <v>1.362977870481359</v>
+        <v>1.015147179805922</v>
       </c>
       <c r="K9">
-        <v>1.542268000037836</v>
+        <v>1.097404588562419</v>
       </c>
       <c r="L9">
-        <v>0.009997036171070395</v>
+        <v>0.400789802442219</v>
       </c>
       <c r="M9">
-        <v>1.253696404126146</v>
+        <v>0.4188035913834511</v>
       </c>
       <c r="N9">
-        <v>0.3594262978131582</v>
+        <v>0.009670760735362993</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.317055765523065</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.3947698462670388</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.534925101726657</v>
+        <v>1.484120946993244</v>
       </c>
       <c r="C10">
-        <v>0.1579947844239484</v>
+        <v>0.2096843377559168</v>
       </c>
       <c r="D10">
-        <v>0.3504875061269388</v>
+        <v>0.3389785104884595</v>
       </c>
       <c r="E10">
-        <v>0.06915165037922932</v>
+        <v>0.06345947643576366</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.412929497189623</v>
+        <v>1.767549088188815</v>
       </c>
       <c r="H10">
-        <v>0.01835717248222934</v>
+        <v>0.01479160439748606</v>
       </c>
       <c r="I10">
-        <v>0.02195841068489912</v>
+        <v>0.01649193888626144</v>
       </c>
       <c r="J10">
-        <v>1.440781871228495</v>
+        <v>1.007041140002997</v>
       </c>
       <c r="K10">
-        <v>1.637382959246537</v>
+        <v>1.12088403152309</v>
       </c>
       <c r="L10">
-        <v>0.01288824336052752</v>
+        <v>0.3957880234456539</v>
       </c>
       <c r="M10">
-        <v>1.490964544252876</v>
+        <v>0.4425379601938744</v>
       </c>
       <c r="N10">
-        <v>0.4075250470464908</v>
+        <v>0.01240878707551829</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.56393347834242</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.445431890698174</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.630754853995938</v>
+        <v>1.586714256219864</v>
       </c>
       <c r="C11">
-        <v>0.1812262296913474</v>
+        <v>0.2268617140549054</v>
       </c>
       <c r="D11">
-        <v>0.3225786485754014</v>
+        <v>0.3131356264368037</v>
       </c>
       <c r="E11">
-        <v>0.05226683278615596</v>
+        <v>0.0482496815757969</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.10021395355335</v>
+        <v>1.574355619534259</v>
       </c>
       <c r="H11">
-        <v>0.03644971511475603</v>
+        <v>0.03311198081811995</v>
       </c>
       <c r="I11">
-        <v>0.02081608566721638</v>
+        <v>0.01596132817248108</v>
       </c>
       <c r="J11">
-        <v>1.277608649308661</v>
+        <v>0.8055088297856372</v>
       </c>
       <c r="K11">
-        <v>1.418065661597495</v>
+        <v>0.949368216256417</v>
       </c>
       <c r="L11">
-        <v>0.01583401871656065</v>
+        <v>0.3299965469404427</v>
       </c>
       <c r="M11">
-        <v>1.610140417795549</v>
+        <v>0.3811246182485206</v>
       </c>
       <c r="N11">
-        <v>0.3331601487281546</v>
+        <v>0.01698097925938313</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.675399977891459</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.3633460718363892</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.662317842839769</v>
+        <v>1.624462241142993</v>
       </c>
       <c r="C12">
-        <v>0.1941169695601985</v>
+        <v>0.2337571876790747</v>
       </c>
       <c r="D12">
-        <v>0.2923140217097711</v>
+        <v>0.2846447285313616</v>
       </c>
       <c r="E12">
-        <v>0.03976676069966345</v>
+        <v>0.03702422919607606</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.831396025389807</v>
+        <v>1.399600044059881</v>
       </c>
       <c r="H12">
-        <v>0.07562512338829919</v>
+        <v>0.07221815828576439</v>
       </c>
       <c r="I12">
-        <v>0.02079036124376632</v>
+        <v>0.01592001547102306</v>
       </c>
       <c r="J12">
-        <v>1.139630903939917</v>
+        <v>0.6882838092262915</v>
       </c>
       <c r="K12">
-        <v>1.237929451202859</v>
+        <v>0.826843163001854</v>
       </c>
       <c r="L12">
-        <v>0.02320501892799953</v>
+        <v>0.2861025980139296</v>
       </c>
       <c r="M12">
-        <v>1.659300426538323</v>
+        <v>0.3338542936903295</v>
       </c>
       <c r="N12">
-        <v>0.2667329391099713</v>
+        <v>0.02539307746279107</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.717374180188102</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2912143027411673</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.644707258703193</v>
+        <v>1.612196389405426</v>
       </c>
       <c r="C13">
-        <v>0.2008303615755693</v>
+        <v>0.2354884394567875</v>
       </c>
       <c r="D13">
-        <v>0.2583545491874588</v>
+        <v>0.2522467590685409</v>
       </c>
       <c r="E13">
-        <v>0.02981324035754884</v>
+        <v>0.02814744185613538</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.566880124885387</v>
+        <v>1.214468882410188</v>
       </c>
       <c r="H13">
-        <v>0.1327921720938008</v>
+        <v>0.1290412975117334</v>
       </c>
       <c r="I13">
-        <v>0.02211860506304042</v>
+        <v>0.0167870995787025</v>
       </c>
       <c r="J13">
-        <v>1.00587534253637</v>
+        <v>0.62443048476662</v>
       </c>
       <c r="K13">
-        <v>1.067396903543511</v>
+        <v>0.7285614447748756</v>
       </c>
       <c r="L13">
-        <v>0.03420349674204459</v>
+        <v>0.2529478453539475</v>
       </c>
       <c r="M13">
-        <v>1.658329883759762</v>
+        <v>0.2934017529081672</v>
       </c>
       <c r="N13">
-        <v>0.2036029350684601</v>
+        <v>0.03721910426162367</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.710290318504974</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.2236659728956312</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.609950696151969</v>
+        <v>1.58080567997024</v>
       </c>
       <c r="C14">
-        <v>0.2030406208723008</v>
+        <v>0.2346310597599341</v>
       </c>
       <c r="D14">
-        <v>0.233246879369915</v>
+        <v>0.2281417036987392</v>
       </c>
       <c r="E14">
-        <v>0.02444334824447836</v>
+        <v>0.02345172528937933</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.385470729606368</v>
+        <v>1.082933023155164</v>
       </c>
       <c r="H14">
-        <v>0.1835507496810038</v>
+        <v>0.1794266845773933</v>
       </c>
       <c r="I14">
-        <v>0.02381013119278919</v>
+        <v>0.01795287924890765</v>
       </c>
       <c r="J14">
-        <v>0.9149312810355639</v>
+        <v>0.5976962405076307</v>
       </c>
       <c r="K14">
-        <v>0.9537068725780884</v>
+        <v>0.6692910990062515</v>
       </c>
       <c r="L14">
-        <v>0.04418910458201708</v>
+        <v>0.2336800694682246</v>
       </c>
       <c r="M14">
-        <v>1.635296617235582</v>
+        <v>0.2680274798640099</v>
       </c>
       <c r="N14">
-        <v>0.1623821604548752</v>
+        <v>0.04770071498858641</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.683363461050874</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1798431279062171</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.590754806045425</v>
+        <v>1.562294121977516</v>
       </c>
       <c r="C15">
-        <v>0.2025446657122814</v>
+        <v>0.2336051156512156</v>
       </c>
       <c r="D15">
-        <v>0.2262145113859617</v>
+        <v>0.2213501617531364</v>
       </c>
       <c r="E15">
-        <v>0.02329002882701392</v>
+        <v>0.02246632958831052</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.337685409582505</v>
+        <v>1.046864495322112</v>
       </c>
       <c r="H15">
-        <v>0.1967166499351407</v>
+        <v>0.1924239480856187</v>
       </c>
       <c r="I15">
-        <v>0.02470993250408693</v>
+        <v>0.01863336818069428</v>
       </c>
       <c r="J15">
-        <v>0.8914236181487496</v>
+        <v>0.597140086710354</v>
       </c>
       <c r="K15">
-        <v>0.9246912969512167</v>
+        <v>0.6565056806741794</v>
       </c>
       <c r="L15">
-        <v>0.04667967322270883</v>
+        <v>0.2297874759489282</v>
       </c>
       <c r="M15">
-        <v>1.61934083846819</v>
+        <v>0.2621746033815988</v>
       </c>
       <c r="N15">
-        <v>0.152318874124532</v>
+        <v>0.05032389627623246</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.666597005333102</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1692582204483628</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.49169292713259</v>
+        <v>1.461989847996193</v>
       </c>
       <c r="C16">
-        <v>0.1890936720347298</v>
+        <v>0.2218390714671159</v>
       </c>
       <c r="D16">
-        <v>0.2175238238366575</v>
+        <v>0.2126984793021194</v>
       </c>
       <c r="E16">
-        <v>0.02276647948613242</v>
+        <v>0.02204799177970207</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.314442846351795</v>
+        <v>1.020859209482936</v>
       </c>
       <c r="H16">
-        <v>0.1872886705498331</v>
+        <v>0.1822249709615988</v>
       </c>
       <c r="I16">
-        <v>0.02830906715229453</v>
+        <v>0.02118565215853252</v>
       </c>
       <c r="J16">
-        <v>0.8846762915374029</v>
+        <v>0.6558615075725953</v>
       </c>
       <c r="K16">
-        <v>0.9180770702666337</v>
+        <v>0.6758577572042554</v>
       </c>
       <c r="L16">
-        <v>0.04288168168854867</v>
+        <v>0.2389258821214426</v>
       </c>
       <c r="M16">
-        <v>1.517261799229345</v>
+        <v>0.2665943972589346</v>
       </c>
       <c r="N16">
-        <v>0.146626677121283</v>
+        <v>0.04671435323708195</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.565627213643012</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1643805854722586</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.43430615032176</v>
+        <v>1.402392686920194</v>
       </c>
       <c r="C17">
-        <v>0.1776766988405285</v>
+        <v>0.2126426258867582</v>
       </c>
       <c r="D17">
-        <v>0.2239431142444914</v>
+        <v>0.2186965411530934</v>
       </c>
       <c r="E17">
-        <v>0.02488129793962024</v>
+        <v>0.02387997356877491</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.390117961182767</v>
+        <v>1.070643305256567</v>
       </c>
       <c r="H17">
-        <v>0.1513423833245184</v>
+        <v>0.1458903798971249</v>
       </c>
       <c r="I17">
-        <v>0.03023309189470336</v>
+        <v>0.02259522871997532</v>
       </c>
       <c r="J17">
-        <v>0.9265148797304477</v>
+        <v>0.7131258039984516</v>
       </c>
       <c r="K17">
-        <v>0.9712900371430067</v>
+        <v>0.7208523541449807</v>
       </c>
       <c r="L17">
-        <v>0.03424088035908923</v>
+        <v>0.2563991515750601</v>
       </c>
       <c r="M17">
-        <v>1.451489119059005</v>
+        <v>0.2823336607175726</v>
       </c>
       <c r="N17">
-        <v>0.1631879230432745</v>
+        <v>0.03785766614734243</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.502044782448849</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1828757280180113</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.406516990963325</v>
+        <v>1.370657992703116</v>
       </c>
       <c r="C18">
-        <v>0.16610118781648</v>
+        <v>0.2047460385534805</v>
       </c>
       <c r="D18">
-        <v>0.2448772559148011</v>
+        <v>0.2385719245804125</v>
       </c>
       <c r="E18">
-        <v>0.03104869890994344</v>
+        <v>0.02928427214936136</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.575481918509226</v>
+        <v>1.197052909605148</v>
       </c>
       <c r="H18">
-        <v>0.09881238028505379</v>
+        <v>0.09332980224635179</v>
       </c>
       <c r="I18">
-        <v>0.03032546867242747</v>
+        <v>0.0225844605614931</v>
       </c>
       <c r="J18">
-        <v>1.022795643215318</v>
+        <v>0.7925754070534197</v>
       </c>
       <c r="K18">
-        <v>1.093965281765364</v>
+        <v>0.8045815129174159</v>
       </c>
       <c r="L18">
-        <v>0.02295821363995998</v>
+        <v>0.2874462976492609</v>
       </c>
       <c r="M18">
-        <v>1.408416756258333</v>
+        <v>0.3136713744723956</v>
       </c>
       <c r="N18">
-        <v>0.2043332946362995</v>
+        <v>0.0259388683110835</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.463387541827672</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.2276784526560789</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.402806041493363</v>
+        <v>1.361874240867962</v>
       </c>
       <c r="C19">
-        <v>0.1571840009791714</v>
+        <v>0.2005839089155046</v>
       </c>
       <c r="D19">
-        <v>0.276868936552205</v>
+        <v>0.268966481645208</v>
       </c>
       <c r="E19">
-        <v>0.04222768347101713</v>
+        <v>0.03924517574746034</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.838830669532598</v>
+        <v>1.374904611848791</v>
       </c>
       <c r="H19">
-        <v>0.05217499521132396</v>
+        <v>0.04699872425763374</v>
       </c>
       <c r="I19">
-        <v>0.02950229162490459</v>
+        <v>0.02211817574281838</v>
       </c>
       <c r="J19">
-        <v>1.15704569578844</v>
+        <v>0.88870854941473</v>
       </c>
       <c r="K19">
-        <v>1.266913961232063</v>
+        <v>0.9158565785353616</v>
       </c>
       <c r="L19">
-        <v>0.01424310826418207</v>
+        <v>0.328058437656253</v>
       </c>
       <c r="M19">
-        <v>1.388531952257665</v>
+        <v>0.3561716480604886</v>
       </c>
       <c r="N19">
-        <v>0.2687932866962086</v>
+        <v>0.01612870803188393</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.449482904668429</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2973338543423409</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.469905307656717</v>
+        <v>1.42015318661322</v>
       </c>
       <c r="C20">
-        <v>0.1529157594108597</v>
+        <v>0.2042171071612273</v>
       </c>
       <c r="D20">
-        <v>0.3396272469695703</v>
+        <v>0.3285465850621989</v>
       </c>
       <c r="E20">
-        <v>0.06700025803925769</v>
+        <v>0.0615505624608943</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.335360766866415</v>
+        <v>1.70853089541032</v>
       </c>
       <c r="H20">
-        <v>0.02035844807847287</v>
+        <v>0.01632438533035252</v>
       </c>
       <c r="I20">
-        <v>0.02512394963686138</v>
+        <v>0.01911828485722644</v>
       </c>
       <c r="J20">
-        <v>1.404909813218069</v>
+        <v>1.028972347278255</v>
       </c>
       <c r="K20">
-        <v>1.590661303758154</v>
+        <v>1.107979637784474</v>
       </c>
       <c r="L20">
-        <v>0.0120169150356304</v>
+        <v>0.3946788953223503</v>
       </c>
       <c r="M20">
-        <v>1.431259643085696</v>
+        <v>0.4335110474254478</v>
       </c>
       <c r="N20">
-        <v>0.3955309811999115</v>
+        <v>0.01164384166129517</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.502933764068871</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.4332725982928594</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.655106620347482</v>
+        <v>1.604492682841055</v>
       </c>
       <c r="C21">
-        <v>0.1731965150733146</v>
+        <v>0.2237554703737459</v>
       </c>
       <c r="D21">
-        <v>0.3773230952719473</v>
+        <v>0.3653573767380607</v>
       </c>
       <c r="E21">
-        <v>0.07606812427859211</v>
+        <v>0.06996195080547096</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.549686028217337</v>
+        <v>1.892488312338998</v>
       </c>
       <c r="H21">
-        <v>0.0142787376719225</v>
+        <v>0.01162626567237388</v>
       </c>
       <c r="I21">
-        <v>0.01879261840063418</v>
+        <v>0.0147621937934046</v>
       </c>
       <c r="J21">
-        <v>1.503389269096459</v>
+        <v>0.8948698698221165</v>
       </c>
       <c r="K21">
-        <v>1.714861374597646</v>
+        <v>1.115236026351901</v>
       </c>
       <c r="L21">
-        <v>0.01484571285401226</v>
+        <v>0.3872535051643524</v>
       </c>
       <c r="M21">
-        <v>1.612451716338171</v>
+        <v>0.44810763207078</v>
       </c>
       <c r="N21">
-        <v>0.4507333198249626</v>
+        <v>0.01387941009416194</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.684612615697915</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.4882849956261595</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.777069554081351</v>
+        <v>1.726432107813821</v>
       </c>
       <c r="C22">
-        <v>0.1863175085393607</v>
+        <v>0.2353934277856098</v>
       </c>
       <c r="D22">
-        <v>0.399701737131366</v>
+        <v>0.387381367850935</v>
       </c>
       <c r="E22">
-        <v>0.08085694203276361</v>
+        <v>0.07447613190491253</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.678992966360198</v>
+        <v>2.013463615007737</v>
       </c>
       <c r="H22">
-        <v>0.0111205253158366</v>
+        <v>0.009192421799563033</v>
       </c>
       <c r="I22">
-        <v>0.01497071609983891</v>
+        <v>0.01194976947905424</v>
       </c>
       <c r="J22">
-        <v>1.562355295175593</v>
+        <v>0.80307535966746</v>
       </c>
       <c r="K22">
-        <v>1.789141420341068</v>
+        <v>1.112627225255075</v>
       </c>
       <c r="L22">
-        <v>0.01668550883539943</v>
+        <v>0.3799691171517168</v>
       </c>
       <c r="M22">
-        <v>1.731155979977331</v>
+        <v>0.455063748483397</v>
       </c>
       <c r="N22">
-        <v>0.4805555395243459</v>
+        <v>0.01542150897456107</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.802264449835292</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.5172272629223471</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.71290193884613</v>
+        <v>1.661359108107746</v>
       </c>
       <c r="C23">
-        <v>0.1783631711446247</v>
+        <v>0.2292142404739224</v>
       </c>
       <c r="D23">
-        <v>0.3879788485590581</v>
+        <v>0.3756442999671066</v>
       </c>
       <c r="E23">
-        <v>0.07841845591296703</v>
+        <v>0.07208664280678789</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.620831780339358</v>
+        <v>1.949128859850191</v>
       </c>
       <c r="H23">
-        <v>0.01272606183941283</v>
+        <v>0.01041395471009948</v>
       </c>
       <c r="I23">
-        <v>0.01656562990246968</v>
+        <v>0.01295037623029582</v>
       </c>
       <c r="J23">
-        <v>1.536355810594642</v>
+        <v>0.8736244733765659</v>
       </c>
       <c r="K23">
-        <v>1.757325542196085</v>
+        <v>1.125093204422427</v>
       </c>
       <c r="L23">
-        <v>0.01572240778218426</v>
+        <v>0.387648232646093</v>
       </c>
       <c r="M23">
-        <v>1.666659931012248</v>
+        <v>0.4557988967678668</v>
       </c>
       <c r="N23">
-        <v>0.4641643076096642</v>
+        <v>0.01461312220687772</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.739591584273313</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.5018535065544398</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.469338602234302</v>
+        <v>1.418878619687661</v>
       </c>
       <c r="C24">
-        <v>0.1504237642820385</v>
+        <v>0.2019953879372025</v>
       </c>
       <c r="D24">
-        <v>0.3435478237112903</v>
+        <v>0.3322146848972238</v>
       </c>
       <c r="E24">
-        <v>0.06903299619714431</v>
+        <v>0.063378599358618</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.384463323332682</v>
+        <v>1.742167096643101</v>
       </c>
       <c r="H24">
-        <v>0.01998112904947025</v>
+        <v>0.01599438293063682</v>
       </c>
       <c r="I24">
-        <v>0.02440535621826978</v>
+        <v>0.01834896627166671</v>
       </c>
       <c r="J24">
-        <v>1.429814905056531</v>
+        <v>1.047883938460274</v>
       </c>
       <c r="K24">
-        <v>1.624608644555707</v>
+        <v>1.130734134278732</v>
       </c>
       <c r="L24">
-        <v>0.01223967399692638</v>
+        <v>0.4030287726275859</v>
       </c>
       <c r="M24">
-        <v>1.425873617448843</v>
+        <v>0.4421571038501995</v>
       </c>
       <c r="N24">
-        <v>0.403261959509436</v>
+        <v>0.01166634428439828</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.498287712974928</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.4417359976316106</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.208417158463988</v>
+        <v>1.166853152232022</v>
       </c>
       <c r="C25">
-        <v>0.1214947581711527</v>
+        <v>0.1623718155032492</v>
       </c>
       <c r="D25">
-        <v>0.2962681647707512</v>
+        <v>0.2877064476704305</v>
       </c>
       <c r="E25">
-        <v>0.05897546263281228</v>
+        <v>0.05479356557520099</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.132808821977591</v>
+        <v>1.602042779645217</v>
       </c>
       <c r="H25">
-        <v>0.03003066919260355</v>
+        <v>0.02403405294642358</v>
       </c>
       <c r="I25">
-        <v>0.03521499996587441</v>
+        <v>0.02623344411832118</v>
       </c>
       <c r="J25">
-        <v>1.316679071635917</v>
+        <v>0.999530944322359</v>
       </c>
       <c r="K25">
-        <v>1.48261728438996</v>
+        <v>1.070633835804607</v>
       </c>
       <c r="L25">
-        <v>0.008865643387788946</v>
+        <v>0.3958074911940486</v>
       </c>
       <c r="M25">
-        <v>1.169198067739075</v>
+        <v>0.4038515430783676</v>
       </c>
       <c r="N25">
-        <v>0.3383097105300976</v>
+        <v>0.008682892615931248</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.228055622372693</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.3721886868864175</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
